--- a/database/sidis/expdata/3447.xlsx
+++ b/database/sidis/expdata/3447.xlsx
@@ -565,13 +565,13 @@
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>-0.0008236840630516744</v>
+        <v>-0.0009607617727395225</v>
       </c>
       <c r="P2" t="n">
         <v>0.000906</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02627552161134841</v>
+        <v>0.03064830055039077</v>
       </c>
     </row>
     <row r="3">
@@ -624,13 +624,13 @@
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>-0.0004827757386552071</v>
+        <v>-0.0005375272980908058</v>
       </c>
       <c r="P3" t="n">
         <v>0.00123</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001129695228453185</v>
+        <v>0.0001257813877532486</v>
       </c>
     </row>
     <row r="4">
@@ -683,13 +683,13 @@
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>-0.0003976687107538919</v>
+        <v>-0.0003878825191944351</v>
       </c>
       <c r="P4" t="n">
         <v>0.00152</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.748711636585623e-05</v>
+        <v>8.533415422277572e-05</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>-0.0002849907958323451</v>
+        <v>-0.0003024423738331445</v>
       </c>
       <c r="P5" t="n">
         <v>0.0018</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0005072836165815742</v>
+        <v>0.0005383474254229972</v>
       </c>
     </row>
     <row r="6">
@@ -801,13 +801,13 @@
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>-0.001023887930012999</v>
+        <v>-0.001295975824174628</v>
       </c>
       <c r="P6" t="n">
         <v>0.000614</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001423204222718069</v>
+        <v>0.001801406395602733</v>
       </c>
     </row>
     <row r="7">
@@ -860,13 +860,13 @@
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>-0.0007227804847424944</v>
+        <v>-0.0008262763331367516</v>
       </c>
       <c r="P7" t="n">
         <v>0.000819</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.00128654926284164</v>
+        <v>0.001470771872983418</v>
       </c>
     </row>
     <row r="8">
@@ -919,13 +919,13 @@
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>-0.0006410090102058841</v>
+        <v>-0.0006174211238879894</v>
       </c>
       <c r="P8" t="n">
         <v>0.00102</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.004416552080318542</v>
+        <v>0.004254031543588247</v>
       </c>
     </row>
     <row r="9">
@@ -978,13 +978,13 @@
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>-0.0004736838210049642</v>
+        <v>-0.0004874564392150064</v>
       </c>
       <c r="P9" t="n">
         <v>0.00121</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.57157601037743e-05</v>
+        <v>3.675421551681148e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1037,13 +1037,13 @@
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>-0.000977533582926708</v>
+        <v>-0.001561194557251325</v>
       </c>
       <c r="P10" t="n">
         <v>0.000764</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0006989365117925962</v>
+        <v>0.001116254108434697</v>
       </c>
     </row>
     <row r="11">
@@ -1096,13 +1096,13 @@
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>-0.0009914668016918573</v>
+        <v>-0.001229327973345556</v>
       </c>
       <c r="P11" t="n">
         <v>0.00103</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0008467126486448461</v>
+        <v>0.001049846089237105</v>
       </c>
     </row>
     <row r="12">
@@ -1155,13 +1155,13 @@
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>-0.001028343280027508</v>
+        <v>-0.000980622656991178</v>
       </c>
       <c r="P12" t="n">
         <v>0.00131</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0005367951921743592</v>
+        <v>0.000511885026949395</v>
       </c>
     </row>
     <row r="13">
@@ -1214,13 +1214,13 @@
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>-0.0008144706339948501</v>
+        <v>-0.0007915096029000265</v>
       </c>
       <c r="P13" t="n">
         <v>0.00155</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1612651855309803</v>
+        <v>0.1567189013742052</v>
       </c>
     </row>
     <row r="14">
@@ -1273,13 +1273,13 @@
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>-0.0007288111848614835</v>
+        <v>-0.001842338613781714</v>
       </c>
       <c r="P14" t="n">
         <v>0.00109</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0007798279678017875</v>
+        <v>0.001971302316746434</v>
       </c>
     </row>
     <row r="15">
@@ -1332,13 +1332,13 @@
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>-0.001213842772640433</v>
+        <v>-0.001760350582184479</v>
       </c>
       <c r="P15" t="n">
         <v>0.00147</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.002439823973007269</v>
+        <v>0.003538304670190802</v>
       </c>
     </row>
     <row r="16">
@@ -1391,13 +1391,13 @@
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>-0.001573003065833116</v>
+        <v>-0.001521152165682959</v>
       </c>
       <c r="P16" t="n">
         <v>0.0019</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0008116695819698879</v>
+        <v>0.0007849145174924071</v>
       </c>
     </row>
     <row r="17">
@@ -1450,13 +1450,13 @@
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>-0.001354197535320874</v>
+        <v>-0.001244952465170023</v>
       </c>
       <c r="P17" t="n">
         <v>0.00236</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.001011585558884693</v>
+        <v>0.0009299794914820073</v>
       </c>
     </row>
     <row r="18">
@@ -1509,13 +1509,13 @@
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>-0.002578622853547712</v>
+        <v>-0.002740922401619249</v>
       </c>
       <c r="P18" t="n">
         <v>0.000782</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.001495601255057673</v>
+        <v>0.001589734992939164</v>
       </c>
     </row>
     <row r="19">
@@ -1568,13 +1568,13 @@
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>-0.001513990939756701</v>
+        <v>-0.001541743108040385</v>
       </c>
       <c r="P19" t="n">
         <v>0.00102</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.002028747859273979</v>
+        <v>0.002065935764774117</v>
       </c>
     </row>
     <row r="20">
@@ -1627,13 +1627,13 @@
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>-0.001252412620920722</v>
+        <v>-0.001168313527278492</v>
       </c>
       <c r="P20" t="n">
         <v>0.00127</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0009330474025859382</v>
+        <v>0.0008703935778224762</v>
       </c>
     </row>
     <row r="21">
@@ -1686,13 +1686,13 @@
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>-0.0009158245718193336</v>
+        <v>-0.000919202256963006</v>
       </c>
       <c r="P21" t="n">
         <v>0.00154</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.004121210573187001</v>
+        <v>0.004136410156333527</v>
       </c>
     </row>
     <row r="22">
@@ -1745,13 +1745,13 @@
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>-0.003324766603122082</v>
+        <v>-0.003682340027400842</v>
       </c>
       <c r="P22" t="n">
         <v>0.000545</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0008411659505898869</v>
+        <v>0.000931632026932413</v>
       </c>
     </row>
     <row r="23">
@@ -1804,13 +1804,13 @@
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>-0.002314834780174277</v>
+        <v>-0.002372377846040549</v>
       </c>
       <c r="P23" t="n">
         <v>0.000715</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.005046339820779924</v>
+        <v>0.005171783704368398</v>
       </c>
     </row>
     <row r="24">
@@ -1863,13 +1863,13 @@
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>-0.002053664513303713</v>
+        <v>-0.001876904107932632</v>
       </c>
       <c r="P24" t="n">
         <v>0.000877</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01121300824263827</v>
+        <v>0.01024789642931217</v>
       </c>
     </row>
     <row r="25">
@@ -1922,13 +1922,13 @@
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
-        <v>-0.001546041695723131</v>
+        <v>-0.001496530254305999</v>
       </c>
       <c r="P25" t="n">
         <v>0.00105</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.002504587547071472</v>
+        <v>0.002424379011975719</v>
       </c>
     </row>
     <row r="26">
@@ -1981,13 +1981,13 @@
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>-0.003331174249876609</v>
+        <v>-0.004253169119703521</v>
       </c>
       <c r="P26" t="n">
         <v>0.000703</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.001432404927446942</v>
+        <v>0.001828862721472514</v>
       </c>
     </row>
     <row r="27">
@@ -2040,13 +2040,13 @@
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>-0.003260511701570933</v>
+        <v>-0.003467657591640218</v>
       </c>
       <c r="P27" t="n">
         <v>0.0009210000000000001</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0153896152314148</v>
+        <v>0.01636734383254183</v>
       </c>
     </row>
     <row r="28">
@@ -2099,13 +2099,13 @@
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>-0.0033853045208521</v>
+        <v>-0.003009192953245169</v>
       </c>
       <c r="P28" t="n">
         <v>0.00115</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0154708416602941</v>
+        <v>0.01375201179633042</v>
       </c>
     </row>
     <row r="29">
@@ -2158,13 +2158,13 @@
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>-0.002680605415139378</v>
+        <v>-0.002437623517922831</v>
       </c>
       <c r="P29" t="n">
         <v>0.00136</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0005870525859155237</v>
+        <v>0.0005338395504251</v>
       </c>
     </row>
     <row r="30">
@@ -2217,13 +2217,13 @@
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>-0.002607704328147795</v>
+        <v>-0.004581772036270109</v>
       </c>
       <c r="P30" t="n">
         <v>0.00103</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.001293421346761306</v>
+        <v>0.002272558929989974</v>
       </c>
     </row>
     <row r="31">
@@ -2276,13 +2276,13 @@
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>-0.004175663903502594</v>
+        <v>-0.004846912868993082</v>
       </c>
       <c r="P31" t="n">
         <v>0.00134</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.003920948405388936</v>
+        <v>0.004551251183984503</v>
       </c>
     </row>
     <row r="32">
@@ -2335,13 +2335,13 @@
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>-0.005249364233863661</v>
+        <v>-0.004612049094183635</v>
       </c>
       <c r="P32" t="n">
         <v>0.00171</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.753287654110463e-05</v>
+        <v>1.540424397457334e-05</v>
       </c>
     </row>
     <row r="33">
@@ -2394,13 +2394,13 @@
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>-0.004555896763408553</v>
+        <v>-0.00387147628331498</v>
       </c>
       <c r="P33" t="n">
         <v>0.00208</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.008291732109403566</v>
+        <v>0.007046086835633264</v>
       </c>
     </row>
     <row r="34">
@@ -2453,13 +2453,13 @@
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>-0.008057620822624368</v>
+        <v>-0.008050453310163068</v>
       </c>
       <c r="P34" t="n">
         <v>0.000736</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.00121670074421628</v>
+        <v>0.001215618449834623</v>
       </c>
     </row>
     <row r="35">
@@ -2512,13 +2512,13 @@
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>-0.004706499659244525</v>
+        <v>-0.0045732378027533</v>
       </c>
       <c r="P35" t="n">
         <v>0.0009210000000000001</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01026016925715306</v>
+        <v>0.009969658410002193</v>
       </c>
     </row>
     <row r="36">
@@ -2571,13 +2571,13 @@
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>-0.003939991516644755</v>
+        <v>-0.003611989905644565</v>
       </c>
       <c r="P36" t="n">
         <v>0.00114</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.007210184475459902</v>
+        <v>0.006609941527329554</v>
       </c>
     </row>
     <row r="37">
@@ -2630,13 +2630,13 @@
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>-0.002885421146273064</v>
+        <v>-0.002812497710817603</v>
       </c>
       <c r="P37" t="n">
         <v>0.0014</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.001335949990724429</v>
+        <v>0.00130218644010855</v>
       </c>
     </row>
     <row r="38">
@@ -2689,13 +2689,13 @@
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="n">
-        <v>-0.01063430380497077</v>
+        <v>-0.01072696473412882</v>
       </c>
       <c r="P38" t="n">
         <v>0.000517</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.001297385064206434</v>
+        <v>0.001308689697563716</v>
       </c>
     </row>
     <row r="39">
@@ -2748,13 +2748,13 @@
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>-0.007275900004635892</v>
+        <v>-0.006997762223295761</v>
       </c>
       <c r="P39" t="n">
         <v>0.000654</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.006606517204209391</v>
+        <v>0.006353968098752552</v>
       </c>
     </row>
     <row r="40">
@@ -2807,13 +2807,13 @@
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>-0.006433926023056594</v>
+        <v>-0.005743175886561414</v>
       </c>
       <c r="P40" t="n">
         <v>0.000787</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.001074465645850451</v>
+        <v>0.0009591103730557562</v>
       </c>
     </row>
     <row r="41">
@@ -2866,13 +2866,13 @@
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>-0.004916805811782195</v>
+        <v>-0.004608485960449182</v>
       </c>
       <c r="P41" t="n">
         <v>0.000938</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0008948586577443595</v>
+        <v>0.0008387444448017511</v>
       </c>
     </row>
     <row r="42">
@@ -2925,13 +2925,13 @@
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>-0.01108208318858985</v>
+        <v>-0.01196122172451483</v>
       </c>
       <c r="P42" t="n">
         <v>0.000675</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.02360483719169637</v>
+        <v>0.02547740227321658</v>
       </c>
     </row>
     <row r="43">
@@ -2984,13 +2984,13 @@
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="n">
-        <v>-0.01058619672750459</v>
+        <v>-0.01016609509530656</v>
       </c>
       <c r="P43" t="n">
         <v>0.000855</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.00217017032913844</v>
+        <v>0.002084049494537844</v>
       </c>
     </row>
     <row r="44">
@@ -3043,13 +3043,13 @@
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="n">
-        <v>-0.01085696168648351</v>
+        <v>-0.009282796232656465</v>
       </c>
       <c r="P44" t="n">
         <v>0.00104</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01650258176345493</v>
+        <v>0.01410985027363783</v>
       </c>
     </row>
     <row r="45">
@@ -3102,13 +3102,13 @@
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="n">
-        <v>-0.008658582946555107</v>
+        <v>-0.007569472863385661</v>
       </c>
       <c r="P45" t="n">
         <v>0.00121</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0005368321426864166</v>
+        <v>0.000469307317529911</v>
       </c>
     </row>
     <row r="46">
@@ -3161,13 +3161,13 @@
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>-0.009266370742404438</v>
+        <v>-0.0121579761577507</v>
       </c>
       <c r="P46" t="n">
         <v>0.001</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.008191471736285523</v>
+        <v>0.01074765092345162</v>
       </c>
     </row>
     <row r="47">
@@ -3220,13 +3220,13 @@
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>-0.01405699954287269</v>
+        <v>-0.01387461210684704</v>
       </c>
       <c r="P47" t="n">
         <v>0.00127</v>
       </c>
       <c r="Q47" t="n">
-        <v>4.807493843662459e-05</v>
+        <v>4.745117340541689e-05</v>
       </c>
     </row>
     <row r="48">
@@ -3279,13 +3279,13 @@
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="n">
-        <v>-0.01743137534630396</v>
+        <v>-0.01433702504012718</v>
       </c>
       <c r="P48" t="n">
         <v>0.00157</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.00857623667038155</v>
+        <v>0.007053816319742573</v>
       </c>
     </row>
     <row r="49">
@@ -3338,13 +3338,13 @@
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="n">
-        <v>-0.01492626653234424</v>
+        <v>-0.01206125611764505</v>
       </c>
       <c r="P49" t="n">
         <v>0.00187</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.02238939979851636</v>
+        <v>0.01809188417646758</v>
       </c>
     </row>
     <row r="50">
@@ -3397,13 +3397,13 @@
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="n">
-        <v>-0.02475114246904546</v>
+        <v>-0.02352683334611873</v>
       </c>
       <c r="P50" t="n">
         <v>0.000722</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.007549098453058864</v>
+        <v>0.007175684170566213</v>
       </c>
     </row>
     <row r="51">
@@ -3456,13 +3456,13 @@
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="n">
-        <v>-0.01388601490261358</v>
+        <v>-0.01312641414865337</v>
       </c>
       <c r="P51" t="n">
         <v>0.000901</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.004332436649615438</v>
+        <v>0.00409544121437985</v>
       </c>
     </row>
     <row r="52">
@@ -3515,13 +3515,13 @@
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="n">
-        <v>-0.01157021308903427</v>
+        <v>-0.01052174336227869</v>
       </c>
       <c r="P52" t="n">
         <v>0.0011</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.03980153302627788</v>
+        <v>0.03619479716623871</v>
       </c>
     </row>
     <row r="53">
@@ -3574,13 +3574,13 @@
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="n">
-        <v>-0.008738887046167395</v>
+        <v>-0.008334257866025555</v>
       </c>
       <c r="P53" t="n">
         <v>0.0013</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.01660388538771805</v>
+        <v>0.01583508994544855</v>
       </c>
     </row>
     <row r="54">
@@ -3633,13 +3633,13 @@
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="n">
-        <v>-0.03245151770145721</v>
+        <v>-0.03046556795265509</v>
       </c>
       <c r="P54" t="n">
         <v>0.000522</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.01661517706314609</v>
+        <v>0.01559837079175941</v>
       </c>
     </row>
     <row r="55">
@@ -3692,13 +3692,13 @@
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="n">
-        <v>-0.02153240453005072</v>
+        <v>-0.01987871250234985</v>
       </c>
       <c r="P55" t="n">
         <v>0.000641</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.02863809802496746</v>
+        <v>0.0264386876281253</v>
       </c>
     </row>
     <row r="56">
@@ -3751,13 +3751,13 @@
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="n">
-        <v>-0.01920152918809536</v>
+        <v>-0.01690500308323014</v>
       </c>
       <c r="P56" t="n">
         <v>0.000758</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.009274338597850059</v>
+        <v>0.00816511648920016</v>
       </c>
     </row>
     <row r="57">
@@ -3810,13 +3810,13 @@
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="n">
-        <v>-0.01500961369168303</v>
+        <v>-0.01372903790556248</v>
       </c>
       <c r="P57" t="n">
         <v>0.000885</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.006364076205273605</v>
+        <v>0.005821112071958491</v>
       </c>
     </row>
     <row r="58">
@@ -3869,13 +3869,13 @@
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
-        <v>-0.03448100231504933</v>
+        <v>-0.03285942129000247</v>
       </c>
       <c r="P58" t="n">
         <v>0.00069</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.006689314449119571</v>
+        <v>0.006374727730260479</v>
       </c>
     </row>
     <row r="59">
@@ -3928,13 +3928,13 @@
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="n">
-        <v>-0.03205700771674044</v>
+        <v>-0.0286955296534486</v>
       </c>
       <c r="P59" t="n">
         <v>0.000853</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.01791986731365791</v>
+        <v>0.01604080107627777</v>
       </c>
     </row>
     <row r="60">
@@ -3987,13 +3987,13 @@
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="n">
-        <v>-0.03275211437386372</v>
+        <v>-0.02726886205506806</v>
       </c>
       <c r="P60" t="n">
         <v>0.0009990000000000001</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.0166053219875489</v>
+        <v>0.01382531306191951</v>
       </c>
     </row>
     <row r="61">
@@ -4046,13 +4046,13 @@
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="n">
-        <v>-0.02653114281423895</v>
+        <v>-0.02254803184196867</v>
       </c>
       <c r="P61" t="n">
         <v>0.00113</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.01522887597537316</v>
+        <v>0.01294257027729002</v>
       </c>
     </row>
     <row r="62">
@@ -4105,13 +4105,13 @@
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="n">
-        <v>-0.02933567850521548</v>
+        <v>-0.03131254690815605</v>
       </c>
       <c r="P62" t="n">
         <v>0.00105</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.01422780407502951</v>
+        <v>0.01518658525045568</v>
       </c>
     </row>
     <row r="63">
@@ -4164,13 +4164,13 @@
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="n">
-        <v>-0.04449290877803293</v>
+        <v>-0.0391157942314232</v>
       </c>
       <c r="P63" t="n">
         <v>0.00129</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.01712976987954268</v>
+        <v>0.01505958077909793</v>
       </c>
     </row>
     <row r="64">
@@ -4223,13 +4223,13 @@
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="n">
-        <v>-0.05421000168550803</v>
+        <v>-0.04253781643309412</v>
       </c>
       <c r="P64" t="n">
         <v>0.00152</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.03469440107872514</v>
+        <v>0.02722420251718024</v>
       </c>
     </row>
     <row r="65">
@@ -4282,13 +4282,13 @@
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="n">
-        <v>-0.04667172385576607</v>
+        <v>-0.03631812471302313</v>
       </c>
       <c r="P65" t="n">
         <v>0.00173</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.0156816992155374</v>
+        <v>0.01220288990357577</v>
       </c>
     </row>
     <row r="66">
@@ -4341,13 +4341,13 @@
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="n">
-        <v>-0.05628889306324775</v>
+        <v>-0.05208391967741982</v>
       </c>
       <c r="P66" t="n">
         <v>0.00106</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.01970111257213671</v>
+        <v>0.01822937188709694</v>
       </c>
     </row>
     <row r="67">
@@ -4400,13 +4400,13 @@
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="n">
-        <v>-0.03167623148577837</v>
+        <v>-0.02964702079582825</v>
       </c>
       <c r="P67" t="n">
         <v>0.00134</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.02394723100324845</v>
+        <v>0.02241314772164616</v>
       </c>
     </row>
     <row r="68">
@@ -4459,13 +4459,13 @@
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="n">
-        <v>-0.02656216633904665</v>
+        <v>-0.02418088285714335</v>
       </c>
       <c r="P68" t="n">
         <v>0.00159</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.1009362320883773</v>
+        <v>0.09188735485714473</v>
       </c>
     </row>
     <row r="69">
@@ -4518,13 +4518,13 @@
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="n">
-        <v>-0.02039485505548404</v>
+        <v>-0.01927020270853819</v>
       </c>
       <c r="P69" t="n">
         <v>0.00183</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.01433758310400528</v>
+        <v>0.01354695250410235</v>
       </c>
     </row>
     <row r="70">
@@ -4577,13 +4577,13 @@
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="n">
-        <v>-0.07289377966900015</v>
+        <v>-0.06592558207392113</v>
       </c>
       <c r="P70" t="n">
         <v>0.000789</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.04169524197066808</v>
+        <v>0.03770943294628289</v>
       </c>
     </row>
     <row r="71">
@@ -4636,13 +4636,13 @@
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="n">
-        <v>-0.04876330884778374</v>
+        <v>-0.04431386333477502</v>
       </c>
       <c r="P71" t="n">
         <v>0.000967</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.02613713354241208</v>
+        <v>0.02375223074743941</v>
       </c>
     </row>
     <row r="72">
@@ -4695,13 +4695,13 @@
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="n">
-        <v>-0.04433541349374495</v>
+        <v>-0.03898823310179014</v>
       </c>
       <c r="P72" t="n">
         <v>0.00113</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.02008394231266646</v>
+        <v>0.01766166959511093</v>
       </c>
     </row>
     <row r="73">
@@ -4754,13 +4754,13 @@
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="n">
-        <v>-0.03489990776204137</v>
+        <v>-0.03165968458935219</v>
       </c>
       <c r="P73" t="n">
         <v>0.00127</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.01280826614866918</v>
+        <v>0.01161910424429225</v>
       </c>
     </row>
     <row r="74">
@@ -4813,13 +4813,13 @@
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="n">
-        <v>-0.07802980037562579</v>
+        <v>-0.06977802404873304</v>
       </c>
       <c r="P74" t="n">
         <v>0.00109</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.01646428787925704</v>
+        <v>0.01472316307428267</v>
       </c>
     </row>
     <row r="75">
@@ -4872,13 +4872,13 @@
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="n">
-        <v>-0.07313052034489473</v>
+        <v>-0.0635463176495847</v>
       </c>
       <c r="P75" t="n">
         <v>0.00133</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.02837464189381916</v>
+        <v>0.02465597124803886</v>
       </c>
     </row>
     <row r="76">
@@ -4931,13 +4931,13 @@
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="n">
-        <v>-0.0750381002965038</v>
+        <v>-0.06209351755880117</v>
       </c>
       <c r="P76" t="n">
         <v>0.00149</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.03226638312749663</v>
+        <v>0.0267002125502845</v>
       </c>
     </row>
     <row r="77">
@@ -4990,13 +4990,13 @@
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="n">
-        <v>-0.06249317903647725</v>
+        <v>-0.05258310096224385</v>
       </c>
       <c r="P77" t="n">
         <v>0.00161</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.04074555273178317</v>
+        <v>0.03428418182738299</v>
       </c>
     </row>
     <row r="78">
@@ -5049,13 +5049,13 @@
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="n">
-        <v>-0.06740779835507081</v>
+        <v>-0.06448431764030241</v>
       </c>
       <c r="P78" t="n">
         <v>0.00169</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.04307358314889025</v>
+        <v>0.04120547897215324</v>
       </c>
     </row>
     <row r="79">
@@ -5108,13 +5108,13 @@
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="n">
-        <v>-0.1020552220416178</v>
+        <v>-0.08524853094227673</v>
       </c>
       <c r="P79" t="n">
         <v>0.00204</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.04265908281339625</v>
+        <v>0.03563388593387167</v>
       </c>
     </row>
     <row r="80">
@@ -5167,13 +5167,13 @@
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="n">
-        <v>-0.1263140082199483</v>
+        <v>-0.09743037903263425</v>
       </c>
       <c r="P80" t="n">
         <v>0.0023</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.07477789286620941</v>
+        <v>0.05767878438731948</v>
       </c>
     </row>
     <row r="81">
@@ -5226,13 +5226,13 @@
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="n">
-        <v>-0.1106520855907927</v>
+        <v>-0.08508572349457393</v>
       </c>
       <c r="P81" t="n">
         <v>0.00253</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.09493948943690012</v>
+        <v>0.07300355075834443</v>
       </c>
     </row>
     <row r="82">
@@ -5285,13 +5285,13 @@
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="n">
-        <v>-0.09006777674864364</v>
+        <v>-0.08410661559277965</v>
       </c>
       <c r="P82" t="n">
         <v>0.00739</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.03107338297828205</v>
+        <v>0.02901678237950898</v>
       </c>
     </row>
     <row r="83">
@@ -5344,13 +5344,13 @@
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="n">
-        <v>-0.05197555207904206</v>
+        <v>-0.04941008039692888</v>
       </c>
       <c r="P83" t="n">
         <v>0.0094</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.09823379342938948</v>
+        <v>0.09338505195019559</v>
       </c>
     </row>
     <row r="84">
@@ -5403,13 +5403,13 @@
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="n">
-        <v>-0.04510190378951672</v>
+        <v>-0.04187185814754493</v>
       </c>
       <c r="P84" t="n">
         <v>0.0113</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.05592636069900073</v>
+        <v>0.05192110410295572</v>
       </c>
     </row>
     <row r="85">
@@ -5462,13 +5462,13 @@
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="n">
-        <v>-0.03522416924861918</v>
+        <v>-0.03373265403567229</v>
       </c>
       <c r="P85" t="n">
         <v>0.0134</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.001687237707008859</v>
+        <v>0.001615794128308702</v>
       </c>
     </row>
     <row r="86">
@@ -5521,13 +5521,13 @@
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="n">
-        <v>-0.1167829006352435</v>
+        <v>-0.1066194366615343</v>
       </c>
       <c r="P86" t="n">
         <v>0.00571</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.1576569158575787</v>
+        <v>0.1439362394930714</v>
       </c>
     </row>
     <row r="87">
@@ -5580,13 +5580,13 @@
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="n">
-        <v>-0.08049829162575034</v>
+        <v>-0.07446826718800073</v>
       </c>
       <c r="P87" t="n">
         <v>0.00697</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.008049829162575035</v>
+        <v>0.007446826718800073</v>
       </c>
     </row>
     <row r="88">
@@ -5639,13 +5639,13 @@
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="n">
-        <v>-0.07523868540070106</v>
+        <v>-0.06761173803003634</v>
       </c>
       <c r="P88" t="n">
         <v>0.00788</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.06786529423143235</v>
+        <v>0.06098578770309278</v>
       </c>
     </row>
     <row r="89">
@@ -5698,13 +5698,13 @@
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="n">
-        <v>-0.0604818166568287</v>
+        <v>-0.05565767278517107</v>
       </c>
       <c r="P89" t="n">
         <v>0.00856</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.02165249036314467</v>
+        <v>0.01992544685709124</v>
       </c>
     </row>
     <row r="90">
@@ -5757,13 +5757,13 @@
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="n">
-        <v>-0.1250000620677286</v>
+        <v>-0.1124617448237773</v>
       </c>
       <c r="P90" t="n">
         <v>0.008529999999999999</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.03425001700655764</v>
+        <v>0.03081451808171499</v>
       </c>
     </row>
     <row r="91">
@@ -5816,13 +5816,13 @@
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="n">
-        <v>-0.1205320699474304</v>
+        <v>-0.1068398400533851</v>
       </c>
       <c r="P91" t="n">
         <v>0.0114</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.0162718294429031</v>
+        <v>0.01442337840720698</v>
       </c>
     </row>
     <row r="92">
@@ -5875,13 +5875,13 @@
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="n">
-        <v>-0.1256974846601975</v>
+        <v>-0.1067263296712386</v>
       </c>
       <c r="P92" t="n">
         <v>0.0109</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.05832363288233162</v>
+        <v>0.04952101696745471</v>
       </c>
     </row>
     <row r="93">
@@ -5934,13 +5934,13 @@
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="n">
-        <v>-0.107083742953719</v>
+        <v>-0.09200558238879861</v>
       </c>
       <c r="P93" t="n">
         <v>0.0114</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.08138364464482647</v>
+        <v>0.06992424261548694</v>
       </c>
     </row>
     <row r="94">
@@ -5993,13 +5993,13 @@
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="n">
-        <v>-0.1077653015641205</v>
+        <v>-0.1036372635326464</v>
       </c>
       <c r="P94" t="n">
         <v>0.0141</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.1390172390177154</v>
+        <v>0.1336920699571139</v>
       </c>
     </row>
     <row r="95">
@@ -6052,13 +6052,13 @@
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="n">
-        <v>-0.1667987506842596</v>
+        <v>-0.1421448735935517</v>
       </c>
       <c r="P95" t="n">
         <v>0.0167</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.8223178408733998</v>
+        <v>0.7007742268162096</v>
       </c>
     </row>
     <row r="96">
@@ -6111,13 +6111,13 @@
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="n">
-        <v>-0.2135577157404455</v>
+        <v>-0.1687137175825152</v>
       </c>
       <c r="P96" t="n">
         <v>0.0179</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.309658687823646</v>
+        <v>0.244634890494647</v>
       </c>
     </row>
     <row r="97">
@@ -6170,13 +6170,13 @@
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="n">
-        <v>-0.1887844719782275</v>
+        <v>-0.1488318228340331</v>
       </c>
       <c r="P97" t="n">
         <v>0.0209</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.5946710867314167</v>
+        <v>0.4688202419272042</v>
       </c>
     </row>
     <row r="98">
@@ -6229,13 +6229,13 @@
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="n">
-        <v>-0.0002849703731874152</v>
+        <v>-0.0003657764018948398</v>
       </c>
       <c r="P98" t="n">
         <v>0.0185</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.0001154130011409032</v>
+        <v>0.0001481394427674102</v>
       </c>
     </row>
     <row r="99">
@@ -6288,13 +6288,13 @@
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="n">
-        <v>-0.0001814214023941652</v>
+        <v>-0.0002235355468162582</v>
       </c>
       <c r="P99" t="n">
         <v>0.0264</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.03191970681465e-05</v>
+        <v>2.503598124342092e-05</v>
       </c>
     </row>
     <row r="100">
@@ -6347,13 +6347,13 @@
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="n">
-        <v>-0.0001562704346624074</v>
+        <v>-0.0001626663258135393</v>
       </c>
       <c r="P100" t="n">
         <v>0.032</v>
       </c>
       <c r="Q100" t="n">
-        <v>4.891264604933353e-05</v>
+        <v>5.091455997963782e-05</v>
       </c>
     </row>
     <row r="101">
@@ -6406,13 +6406,13 @@
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="n">
-        <v>-0.0001073317575196361</v>
+        <v>-0.0001252477714608975</v>
       </c>
       <c r="P101" t="n">
         <v>0.0528</v>
       </c>
       <c r="Q101" t="n">
-        <v>6.407705923922274e-05</v>
+        <v>7.477291956215579e-05</v>
       </c>
     </row>
     <row r="102">
@@ -6465,13 +6465,13 @@
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="n">
-        <v>-0.0003624487324877896</v>
+        <v>-0.0005136546904137629</v>
       </c>
       <c r="P102" t="n">
         <v>0.0118</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.0003696977071375454</v>
+        <v>0.0005239277842220382</v>
       </c>
     </row>
     <row r="103">
@@ -6524,13 +6524,13 @@
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="n">
-        <v>-0.0002714350289401394</v>
+        <v>-0.0003445011610765955</v>
       </c>
       <c r="P103" t="n">
         <v>0.0165</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.006758732220609471</v>
+        <v>0.008578078910807226</v>
       </c>
     </row>
     <row r="104">
@@ -6583,13 +6583,13 @@
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="n">
-        <v>-0.0002503094079224828</v>
+        <v>-0.0002579964061057074</v>
       </c>
       <c r="P104" t="n">
         <v>0.0229</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.0117144802907722</v>
+        <v>0.0120742318057471</v>
       </c>
     </row>
     <row r="105">
@@ -6642,13 +6642,13 @@
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="n">
-        <v>-0.0001863809871344546</v>
+        <v>-0.0002093013429726389</v>
       </c>
       <c r="P105" t="n">
         <v>0.0291</v>
       </c>
       <c r="Q105" t="n">
-        <v>5.572791515320193e-05</v>
+        <v>6.258110154881903e-05</v>
       </c>
     </row>
     <row r="106">
@@ -6701,13 +6701,13 @@
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="n">
-        <v>-0.0003477217262971015</v>
+        <v>-0.0006543237222220186</v>
       </c>
       <c r="P106" t="n">
         <v>0.0156</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.001057074047943189</v>
+        <v>0.001989144115554937</v>
       </c>
     </row>
     <row r="107">
@@ -6760,13 +6760,13 @@
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="n">
-        <v>-0.0003679164190792226</v>
+        <v>-0.0005187906587770416</v>
       </c>
       <c r="P107" t="n">
         <v>0.0197</v>
       </c>
       <c r="Q107" t="n">
-        <v>4.893288373753661e-05</v>
+        <v>6.899915761734654e-05</v>
       </c>
     </row>
     <row r="108">
@@ -6819,13 +6819,13 @@
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="n">
-        <v>-0.0003938690870978173</v>
+        <v>-0.0004062732717068486</v>
       </c>
       <c r="P108" t="n">
         <v>0.0277</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.0006735161389372675</v>
+        <v>0.0006947272946187111</v>
       </c>
     </row>
     <row r="109">
@@ -6878,13 +6878,13 @@
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="n">
-        <v>-0.0003202900884588546</v>
+        <v>-0.0003404588762926407</v>
       </c>
       <c r="P109" t="n">
         <v>0.0334</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.0004227829167656881</v>
+        <v>0.0004494057167062858</v>
       </c>
     </row>
     <row r="110">
@@ -6937,13 +6937,13 @@
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="n">
-        <v>-0.0002545990138372181</v>
+        <v>-0.0008030759580729759</v>
       </c>
       <c r="P110" t="n">
         <v>0.0196</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.0004888301065674588</v>
+        <v>0.001541905839500114</v>
       </c>
     </row>
     <row r="111">
@@ -6996,13 +6996,13 @@
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="n">
-        <v>-0.0004290490294621023</v>
+        <v>-0.000737918068200338</v>
       </c>
       <c r="P111" t="n">
         <v>0.0293</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.001145560908663813</v>
+        <v>0.001970241242094902</v>
       </c>
     </row>
     <row r="112">
@@ -7055,13 +7055,13 @@
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="n">
-        <v>-0.0005847053897166337</v>
+        <v>-0.0006037213227620269</v>
       </c>
       <c r="P112" t="n">
         <v>0.0396</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.0004315125776108756</v>
+        <v>0.0004455463361983759</v>
       </c>
     </row>
     <row r="113">
@@ -7114,13 +7114,13 @@
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="n">
-        <v>-0.0005372698125055665</v>
+        <v>-0.0005377147483931802</v>
       </c>
       <c r="P113" t="n">
         <v>0.0546</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.0003051692535031617</v>
+        <v>0.0003054219770873264</v>
       </c>
     </row>
     <row r="114">
@@ -7173,13 +7173,13 @@
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="n">
-        <v>-0.0006226460115235476</v>
+        <v>-0.000723539977331146</v>
       </c>
       <c r="P114" t="n">
         <v>0.00225</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.000144453874673463</v>
+        <v>0.0001678612747408259</v>
       </c>
     </row>
     <row r="115">
@@ -7232,13 +7232,13 @@
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="n">
-        <v>-0.0003827768777336761</v>
+        <v>-0.0004255162999463408</v>
       </c>
       <c r="P115" t="n">
         <v>0.00304</v>
       </c>
       <c r="Q115" t="n">
-        <v>9.492866567795167e-05</v>
+        <v>0.0001055280423866925</v>
       </c>
     </row>
     <row r="116">
@@ -7291,13 +7291,13 @@
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="n">
-        <v>-0.0003253470430896215</v>
+        <v>-0.0003209218171245562</v>
       </c>
       <c r="P116" t="n">
         <v>0.00397</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.004554858603254702</v>
+        <v>0.004492905439743787</v>
       </c>
     </row>
     <row r="117">
@@ -7350,13 +7350,13 @@
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="n">
-        <v>-0.0002452992369912857</v>
+        <v>-0.0002671947860594052</v>
       </c>
       <c r="P117" t="n">
         <v>0.00501</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.0001994282796739153</v>
+        <v>0.0002172293610662965</v>
       </c>
     </row>
     <row r="118">
@@ -7409,13 +7409,13 @@
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="n">
-        <v>-0.0007816275390798277</v>
+        <v>-0.0009763888817257622</v>
       </c>
       <c r="P118" t="n">
         <v>0.00149</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.001485092324251673</v>
+        <v>0.001855138875278948</v>
       </c>
     </row>
     <row r="119">
@@ -7468,13 +7468,13 @@
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="n">
-        <v>-0.000570781659597537</v>
+        <v>-0.0006471698705874247</v>
       </c>
       <c r="P119" t="n">
         <v>0.00197</v>
       </c>
       <c r="Q119" t="n">
-        <v>8.675881225882561e-05</v>
+        <v>9.836982032928855e-05</v>
       </c>
     </row>
     <row r="120">
@@ -7527,13 +7527,13 @@
       </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="n">
-        <v>-0.000529736499421278</v>
+        <v>-0.0005142226195424704</v>
       </c>
       <c r="P120" t="n">
         <v>0.00258</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.000396242901567116</v>
+        <v>0.0003846385194177679</v>
       </c>
     </row>
     <row r="121">
@@ -7586,13 +7586,13 @@
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="n">
-        <v>-0.0004121910160043318</v>
+        <v>-0.0004332334377004838</v>
       </c>
       <c r="P121" t="n">
         <v>0.00334</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.0001331376981693992</v>
+        <v>0.0001399344003772563</v>
       </c>
     </row>
     <row r="122">
@@ -7645,13 +7645,13 @@
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="n">
-        <v>-0.0007556739550591085</v>
+        <v>-0.001172645447333081</v>
       </c>
       <c r="P122" t="n">
         <v>0.00177</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.0009219222251721123</v>
+        <v>0.001430627445746358</v>
       </c>
     </row>
     <row r="123">
@@ -7704,13 +7704,13 @@
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="n">
-        <v>-0.0007830717679430128</v>
+        <v>-0.0009514885255234244</v>
       </c>
       <c r="P123" t="n">
         <v>0.00241</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.001143284781196799</v>
+        <v>0.0013891732472642</v>
       </c>
     </row>
     <row r="124">
@@ -7763,13 +7763,13 @@
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="n">
-        <v>-0.0008497027880209133</v>
+        <v>-0.0008118998318717481</v>
       </c>
       <c r="P124" t="n">
         <v>0.00313</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.003458290347245117</v>
+        <v>0.003304432315718015</v>
       </c>
     </row>
     <row r="125">
@@ -7822,13 +7822,13 @@
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="n">
-        <v>-0.00070437292273888</v>
+        <v>-0.000696735355987013</v>
       </c>
       <c r="P125" t="n">
         <v>0.00406</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.0003261246632281015</v>
+        <v>0.000322588469821987</v>
       </c>
     </row>
     <row r="126">
@@ -7881,13 +7881,13 @@
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="n">
-        <v>-0.00056291771327397</v>
+        <v>-0.001334772888463649</v>
       </c>
       <c r="P126" t="n">
         <v>0.00243</v>
       </c>
       <c r="Q126" t="n">
-        <v>5.156326253589565e-05</v>
+        <v>0.0001222651965832702</v>
       </c>
     </row>
     <row r="127">
@@ -7940,13 +7940,13 @@
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="n">
-        <v>-0.0009636757387055026</v>
+        <v>-0.00135125186315071</v>
       </c>
       <c r="P127" t="n">
         <v>0.00337</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.000534840034981554</v>
+        <v>0.0007499447840486443</v>
       </c>
     </row>
     <row r="128">
@@ -7999,13 +7999,13 @@
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="n">
-        <v>-0.001293497914308811</v>
+        <v>-0.001241432033443707</v>
       </c>
       <c r="P128" t="n">
         <v>0.00449</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.001991986788035569</v>
+        <v>0.00191180533150331</v>
       </c>
     </row>
     <row r="129">
@@ -8058,13 +8058,13 @@
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="n">
-        <v>-0.001169663635915768</v>
+        <v>-0.001085975336510975</v>
       </c>
       <c r="P129" t="n">
         <v>0.00596</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.0009708208178100877</v>
+        <v>0.0009013595293041088</v>
       </c>
     </row>
     <row r="130">
@@ -8117,13 +8117,13 @@
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="n">
-        <v>-0.001809254684545399</v>
+        <v>-0.001939333347754436</v>
       </c>
       <c r="P130" t="n">
         <v>0.00135</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.001881624871927215</v>
+        <v>0.002016906681664613</v>
       </c>
     </row>
     <row r="131">
@@ -8176,13 +8176,13 @@
       </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="n">
-        <v>-0.001087775721765873</v>
+        <v>-0.001121337721347147</v>
       </c>
       <c r="P131" t="n">
         <v>0.00184</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.001512008253254563</v>
+        <v>0.001558659432672534</v>
       </c>
     </row>
     <row r="132">
@@ -8235,13 +8235,13 @@
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="n">
-        <v>-0.000921455775279462</v>
+        <v>-0.0008774353708587851</v>
       </c>
       <c r="P132" t="n">
         <v>0.00251</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.000145590012494155</v>
+        <v>0.000138634788595688</v>
       </c>
     </row>
     <row r="133">
@@ -8294,13 +8294,13 @@
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="n">
-        <v>-0.0006975879399601897</v>
+        <v>-0.0007283021552420565</v>
       </c>
       <c r="P133" t="n">
         <v>0.00327</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.000191139095549092</v>
+        <v>0.0001995547905363235</v>
       </c>
     </row>
     <row r="134">
@@ -8353,13 +8353,13 @@
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="n">
-        <v>-0.002285325689650266</v>
+        <v>-0.002540702837798248</v>
       </c>
       <c r="P134" t="n">
         <v>0.000954</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.001729991547065251</v>
+        <v>0.001923312048213273</v>
       </c>
     </row>
     <row r="135">
@@ -8412,13 +8412,13 @@
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="n">
-        <v>-0.001634331269312641</v>
+        <v>-0.001687790771000321</v>
       </c>
       <c r="P135" t="n">
         <v>0.00129</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.002860079721297122</v>
+        <v>0.002953633849250562</v>
       </c>
     </row>
     <row r="136">
@@ -8471,13 +8471,13 @@
       </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="n">
-        <v>-0.001513412767052018</v>
+        <v>-0.001407888750542307</v>
       </c>
       <c r="P136" t="n">
         <v>0.00169</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.003722995406947963</v>
+        <v>0.003463406326334074</v>
       </c>
     </row>
     <row r="137">
@@ -8530,13 +8530,13 @@
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="n">
-        <v>-0.001180856099106068</v>
+        <v>-0.001186311322943183</v>
       </c>
       <c r="P137" t="n">
         <v>0.00216</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.0001346175952980918</v>
+        <v>0.0001352394908155229</v>
       </c>
     </row>
     <row r="138">
@@ -8589,13 +8589,13 @@
       </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="n">
-        <v>-0.002241883162829657</v>
+        <v>-0.002851227447276847</v>
       </c>
       <c r="P138" t="n">
         <v>0.00119</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.001011089306436175</v>
+        <v>0.001285903578721858</v>
       </c>
     </row>
     <row r="139">
@@ -8648,13 +8648,13 @@
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="n">
-        <v>-0.002272360242710908</v>
+        <v>-0.002421530488901823</v>
       </c>
       <c r="P139" t="n">
         <v>0.00165</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.002863173905815745</v>
+        <v>0.003051128416016298</v>
       </c>
     </row>
     <row r="140">
@@ -8707,13 +8707,13 @@
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="n">
-        <v>-0.002471978124954243</v>
+        <v>-0.002225191168704469</v>
       </c>
       <c r="P140" t="n">
         <v>0.00211</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.001189021478102991</v>
+        <v>0.001070316952146849</v>
       </c>
     </row>
     <row r="141">
@@ -8766,13 +8766,13 @@
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="n">
-        <v>-0.002051445519821423</v>
+        <v>-0.001920821459330741</v>
       </c>
       <c r="P141" t="n">
         <v>0.00262</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.0007139030408978551</v>
+        <v>0.0006684458678470979</v>
       </c>
     </row>
     <row r="142">
@@ -8825,13 +8825,13 @@
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="n">
-        <v>-0.001743008924578191</v>
+        <v>-0.002990162086279259</v>
       </c>
       <c r="P142" t="n">
         <v>0.00166</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.0005908800254320069</v>
+        <v>0.001013664947248669</v>
       </c>
     </row>
     <row r="143">
@@ -8884,13 +8884,13 @@
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="n">
-        <v>-0.002872768098012539</v>
+        <v>-0.003318500469906311</v>
       </c>
       <c r="P143" t="n">
         <v>0.0023</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.001114634022028865</v>
+        <v>0.001287578182323649</v>
       </c>
     </row>
     <row r="144">
@@ -8943,13 +8943,13 @@
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="n">
-        <v>-0.003782978881227487</v>
+        <v>-0.003340924874462924</v>
       </c>
       <c r="P144" t="n">
         <v>0.00302</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.001849876672920241</v>
+        <v>0.00163371226361237</v>
       </c>
     </row>
     <row r="145">
@@ -9002,13 +9002,13 @@
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="n">
-        <v>-0.003414504724161759</v>
+        <v>-0.002969018329478797</v>
       </c>
       <c r="P145" t="n">
         <v>0.00382</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.006521704023148959</v>
+        <v>0.005670825009304502</v>
       </c>
     </row>
     <row r="146">
@@ -9061,13 +9061,13 @@
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="n">
-        <v>-0.005783904974561434</v>
+        <v>-0.005851856020744514</v>
       </c>
       <c r="P146" t="n">
         <v>0.00109</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.004135492056811426</v>
+        <v>0.004184077054832328</v>
       </c>
     </row>
     <row r="147">
@@ -9120,13 +9120,13 @@
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="n">
-        <v>-0.003434300453118947</v>
+        <v>-0.003391140953183262</v>
       </c>
       <c r="P147" t="n">
         <v>0.00153</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.008894838173578072</v>
+        <v>0.008783055068744649</v>
       </c>
     </row>
     <row r="148">
@@ -9179,13 +9179,13 @@
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="n">
-        <v>-0.002910246135980262</v>
+        <v>-0.002727739617394587</v>
       </c>
       <c r="P148" t="n">
         <v>0.00208</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.00366691013133513</v>
+        <v>0.00343695191791718</v>
       </c>
     </row>
     <row r="149">
@@ -9238,13 +9238,13 @@
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="n">
-        <v>-0.002243191009677045</v>
+        <v>-0.002274240889207127</v>
       </c>
       <c r="P149" t="n">
         <v>0.00271</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.002759124941902765</v>
+        <v>0.002797316293724767</v>
       </c>
     </row>
     <row r="150">
@@ -9297,13 +9297,13 @@
       </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="n">
-        <v>-0.007409286487206349</v>
+        <v>-0.007556831928783101</v>
       </c>
       <c r="P150" t="n">
         <v>0.000809</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.003311951059781238</v>
+        <v>0.003377903872166046</v>
       </c>
     </row>
     <row r="151">
@@ -9356,13 +9356,13 @@
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="n">
-        <v>-0.005249946399894458</v>
+        <v>-0.005115766748468219</v>
       </c>
       <c r="P151" t="n">
         <v>0.00108</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.009292405127813191</v>
+        <v>0.009054907144788748</v>
       </c>
     </row>
     <row r="152">
@@ -9415,13 +9415,13 @@
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="n">
-        <v>-0.004831672642071764</v>
+        <v>-0.004395231892922145</v>
       </c>
       <c r="P152" t="n">
         <v>0.00141</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.006232857708272576</v>
+        <v>0.005669849141869568</v>
       </c>
     </row>
     <row r="153">
@@ -9474,13 +9474,13 @@
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="n">
-        <v>-0.003799346322314046</v>
+        <v>-0.003695987343984925</v>
       </c>
       <c r="P153" t="n">
         <v>0.00179</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.002876105165991733</v>
+        <v>0.002797862419396589</v>
       </c>
     </row>
     <row r="154">
@@ -9533,13 +9533,13 @@
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="n">
-        <v>-0.007630915895507468</v>
+        <v>-0.008281257054413573</v>
       </c>
       <c r="P154" t="n">
         <v>0.00105</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.0008470316644013289</v>
+        <v>0.0009192195330399066</v>
       </c>
     </row>
     <row r="155">
@@ -9592,13 +9592,13 @@
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="n">
-        <v>-0.007633512882355654</v>
+        <v>-0.007365640066908829</v>
       </c>
       <c r="P155" t="n">
         <v>0.00141</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.001145026932353348</v>
+        <v>0.001104846010036324</v>
       </c>
     </row>
     <row r="156">
@@ -9651,13 +9651,13 @@
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="n">
-        <v>-0.008070378998124539</v>
+        <v>-0.006997115982529055</v>
       </c>
       <c r="P156" t="n">
         <v>0.00177</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.004777664366889727</v>
+        <v>0.004142292661657201</v>
       </c>
     </row>
     <row r="157">
@@ -9710,13 +9710,13 @@
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="n">
-        <v>-0.006714748320101738</v>
+        <v>-0.006044269480322837</v>
       </c>
       <c r="P157" t="n">
         <v>0.00219</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.02806764797802526</v>
+        <v>0.02526504642774946</v>
       </c>
     </row>
     <row r="158">
@@ -9769,13 +9769,13 @@
       </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="n">
-        <v>-0.006263197386072341</v>
+        <v>-0.008196475686385004</v>
       </c>
       <c r="P158" t="n">
         <v>0.00152</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.02956229166226144</v>
+        <v>0.03868736523973722</v>
       </c>
     </row>
     <row r="159">
@@ -9828,13 +9828,13 @@
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="n">
-        <v>-0.01001888794614592</v>
+        <v>-0.009885118527578758</v>
       </c>
       <c r="P159" t="n">
         <v>0.00202</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.006662560484187036</v>
+        <v>0.006573603820839875</v>
       </c>
     </row>
     <row r="160">
@@ -9887,13 +9887,13 @@
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="n">
-        <v>-0.01300388241273693</v>
+        <v>-0.01077853764575115</v>
       </c>
       <c r="P160" t="n">
         <v>0.0026</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.009791923456790905</v>
+        <v>0.008116238847250616</v>
       </c>
     </row>
     <row r="161">
@@ -9946,13 +9946,13 @@
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="n">
-        <v>-0.01159277787919715</v>
+        <v>-0.009573739383199548</v>
       </c>
       <c r="P161" t="n">
         <v>0.00321</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.006109393942336897</v>
+        <v>0.005045360654946162</v>
       </c>
     </row>
     <row r="162">
@@ -10005,13 +10005,13 @@
       </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="n">
-        <v>-0.01797777557664091</v>
+        <v>-0.01736718830209073</v>
       </c>
       <c r="P162" t="n">
         <v>0.00105</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.004476466118583588</v>
+        <v>0.004324429887220592</v>
       </c>
     </row>
     <row r="163">
@@ -10064,13 +10064,13 @@
       </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="n">
-        <v>-0.01057615971838096</v>
+        <v>-0.01016630660651061</v>
       </c>
       <c r="P163" t="n">
         <v>0.00145</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.003902602936082574</v>
+        <v>0.003751367137802416</v>
       </c>
     </row>
     <row r="164">
@@ -10123,13 +10123,13 @@
       </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="n">
-        <v>-0.009067991851337141</v>
+        <v>-0.008422507456702817</v>
       </c>
       <c r="P164" t="n">
         <v>0.00195</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.02303269930239634</v>
+        <v>0.02139316894002516</v>
       </c>
     </row>
     <row r="165">
@@ -10182,13 +10182,13 @@
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="n">
-        <v>-0.007053555003342616</v>
+        <v>-0.006986503442035968</v>
       </c>
       <c r="P165" t="n">
         <v>0.00251</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.0004655346302206127</v>
+        <v>0.000461109227174374</v>
       </c>
     </row>
     <row r="166">
@@ -10241,13 +10241,13 @@
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="n">
-        <v>-0.02346019484900653</v>
+        <v>-0.02234877958406082</v>
       </c>
       <c r="P166" t="n">
         <v>0.000775</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.02697922407635751</v>
+        <v>0.02570109652166994</v>
       </c>
     </row>
     <row r="167">
@@ -10300,13 +10300,13 @@
       </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="n">
-        <v>-0.01635947068610592</v>
+        <v>-0.01532126929083695</v>
       </c>
       <c r="P167" t="n">
         <v>0.00102</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.005578579503962118</v>
+        <v>0.005224552828175402</v>
       </c>
     </row>
     <row r="168">
@@ -10359,13 +10359,13 @@
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="n">
-        <v>-0.01508850294282645</v>
+        <v>-0.01352911536118419</v>
       </c>
       <c r="P168" t="n">
         <v>0.00134</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.007438631950813441</v>
+        <v>0.006669853873063804</v>
       </c>
     </row>
     <row r="169">
@@ -10418,13 +10418,13 @@
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="n">
-        <v>-0.01210577051600345</v>
+        <v>-0.01145809309016154</v>
       </c>
       <c r="P169" t="n">
         <v>0.00168</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.001392163609340397</v>
+        <v>0.001317680705368577</v>
       </c>
     </row>
     <row r="170">
@@ -10477,13 +10477,13 @@
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="n">
-        <v>-0.02483035842737771</v>
+        <v>-0.02390137003265236</v>
       </c>
       <c r="P170" t="n">
         <v>0.00103</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.004742598459629144</v>
+        <v>0.0045651616762366</v>
       </c>
     </row>
     <row r="171">
@@ -10536,13 +10536,13 @@
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="n">
-        <v>-0.02413376185957918</v>
+        <v>-0.02178829117514588</v>
       </c>
       <c r="P171" t="n">
         <v>0.00132</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.007988275175520707</v>
+        <v>0.007211924378973286</v>
       </c>
     </row>
     <row r="172">
@@ -10595,13 +10595,13 @@
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="n">
-        <v>-0.02557234976314632</v>
+        <v>-0.02158830503535611</v>
       </c>
       <c r="P172" t="n">
         <v>0.00165</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.006239653342207702</v>
+        <v>0.005267546428626891</v>
       </c>
     </row>
     <row r="173">
@@ -10654,13 +10654,13 @@
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="n">
-        <v>-0.02167123837908149</v>
+        <v>-0.01889875092167594</v>
       </c>
       <c r="P173" t="n">
         <v>0.00202</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.005764549408835677</v>
+        <v>0.005027067745165801</v>
       </c>
     </row>
     <row r="174">
@@ -10713,13 +10713,13 @@
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="n">
-        <v>-0.02128816908077069</v>
+        <v>-0.02274997664940713</v>
       </c>
       <c r="P174" t="n">
         <v>0.00151</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.001935094569442055</v>
+        <v>0.002067972877431108</v>
       </c>
     </row>
     <row r="175">
@@ -10772,13 +10772,13 @@
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="n">
-        <v>-0.0333137781808019</v>
+        <v>-0.02937644242416019</v>
       </c>
       <c r="P175" t="n">
         <v>0.00196</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.0008561640992466087</v>
+        <v>0.0007549745703009168</v>
       </c>
     </row>
     <row r="176">
@@ -10831,13 +10831,13 @@
       </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="n">
-        <v>-0.04215402902899098</v>
+        <v>-0.03333723918810917</v>
       </c>
       <c r="P176" t="n">
         <v>0.00244</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.01989670170168374</v>
+        <v>0.01573517689678753</v>
       </c>
     </row>
     <row r="177">
@@ -10890,13 +10890,13 @@
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="n">
-        <v>-0.03785673931730994</v>
+        <v>-0.0300729648902454</v>
       </c>
       <c r="P177" t="n">
         <v>0.00293</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.02525044512464573</v>
+        <v>0.02005866758179368</v>
       </c>
     </row>
     <row r="178">
@@ -10949,13 +10949,13 @@
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="n">
-        <v>-0.0498761041067252</v>
+        <v>-0.04676554342897092</v>
       </c>
       <c r="P178" t="n">
         <v>0.00117</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.01710750370860675</v>
+        <v>0.01604058139613703</v>
       </c>
     </row>
     <row r="179">
@@ -11008,13 +11008,13 @@
       </c>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="n">
-        <v>-0.02958997248017839</v>
+        <v>-0.02807034629116738</v>
       </c>
       <c r="P179" t="n">
         <v>0.00155</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.02275468883725718</v>
+        <v>0.02158609629790772</v>
       </c>
     </row>
     <row r="180">
@@ -11067,13 +11067,13 @@
       </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="n">
-        <v>-0.0258686180904665</v>
+        <v>-0.02394858193961556</v>
       </c>
       <c r="P180" t="n">
         <v>0.00204</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.00051737236180933</v>
+        <v>0.0004789716387923111</v>
       </c>
     </row>
     <row r="181">
@@ -11126,13 +11126,13 @@
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="n">
-        <v>-0.02031973153431654</v>
+        <v>-0.01972409688319831</v>
       </c>
       <c r="P181" t="n">
         <v>0.00259</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.02214850737240504</v>
+        <v>0.02149926560268616</v>
       </c>
     </row>
     <row r="182">
@@ -11185,13 +11185,13 @@
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="n">
-        <v>-0.06458222407748848</v>
+        <v>-0.05904804320843549</v>
       </c>
       <c r="P182" t="n">
         <v>0.000867</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.01989132501586645</v>
+        <v>0.01818679730819813</v>
       </c>
     </row>
     <row r="183">
@@ -11244,13 +11244,13 @@
       </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="n">
-        <v>-0.04547363147548875</v>
+        <v>-0.04178682940362893</v>
       </c>
       <c r="P183" t="n">
         <v>0.0011</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.01659787548855339</v>
+        <v>0.01525219273232456</v>
       </c>
     </row>
     <row r="184">
@@ -11303,13 +11303,13 @@
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="n">
-        <v>-0.04284161584622988</v>
+        <v>-0.03823429101744928</v>
       </c>
       <c r="P184" t="n">
         <v>0.0014</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.009125264175246964</v>
+        <v>0.008143903986716697</v>
       </c>
     </row>
     <row r="185">
@@ -11362,13 +11362,13 @@
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="n">
-        <v>-0.03508882542051389</v>
+        <v>-0.03256820781518026</v>
       </c>
       <c r="P185" t="n">
         <v>0.00174</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.01442150724783121</v>
+        <v>0.01338553341203908</v>
       </c>
     </row>
     <row r="186">
@@ -11421,13 +11421,13 @@
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="n">
-        <v>-0.06906484232562105</v>
+        <v>-0.06215970405886173</v>
       </c>
       <c r="P186" t="n">
         <v>0.00118</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.01602304341954408</v>
+        <v>0.01442105134165592</v>
       </c>
     </row>
     <row r="187">
@@ -11480,13 +11480,13 @@
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="n">
-        <v>-0.06777512779416697</v>
+        <v>-0.05928030519024734</v>
       </c>
       <c r="P187" t="n">
         <v>0.00145</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.0073874889295642</v>
+        <v>0.006461553265736959</v>
       </c>
     </row>
     <row r="188">
@@ -11539,13 +11539,13 @@
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="n">
-        <v>-0.07271110412738813</v>
+        <v>-0.06081657261036197</v>
       </c>
       <c r="P188" t="n">
         <v>0.00175</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.02821190840142659</v>
+        <v>0.02359683017282044</v>
       </c>
     </row>
     <row r="189">
@@ -11598,13 +11598,13 @@
       </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="n">
-        <v>-0.06324497968356366</v>
+        <v>-0.05425275971262947</v>
       </c>
       <c r="P189" t="n">
         <v>0.00213</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.04572612031121652</v>
+        <v>0.0392247452722311</v>
       </c>
     </row>
     <row r="190">
@@ -11657,13 +11657,13 @@
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="n">
-        <v>-0.05909830555391943</v>
+        <v>-0.05714674147138615</v>
       </c>
       <c r="P190" t="n">
         <v>0.00171</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.02818989174921957</v>
+        <v>0.02725899568185119</v>
       </c>
     </row>
     <row r="191">
@@ -11716,13 +11716,13 @@
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="n">
-        <v>-0.09519831002702281</v>
+        <v>-0.07964397224147468</v>
       </c>
       <c r="P191" t="n">
         <v>0.00216</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.04369602430240347</v>
+        <v>0.03655658325883688</v>
       </c>
     </row>
     <row r="192">
@@ -11775,13 +11775,13 @@
       </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="n">
-        <v>-0.121418906541979</v>
+        <v>-0.09432817712833667</v>
       </c>
       <c r="P192" t="n">
         <v>0.00264</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.06228789905603523</v>
+        <v>0.04839035486683672</v>
       </c>
     </row>
     <row r="193">
@@ -11834,13 +11834,13 @@
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="n">
-        <v>-0.1106496095493075</v>
+        <v>-0.08635741328088578</v>
       </c>
       <c r="P193" t="n">
         <v>0.00307</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.0340800797411867</v>
+        <v>0.02659808329051282</v>
       </c>
     </row>
     <row r="194">
@@ -11893,13 +11893,13 @@
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="n">
-        <v>-0.09641622415558659</v>
+        <v>-0.09207590803957942</v>
       </c>
       <c r="P194" t="n">
         <v>0.0019</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.04107331149027989</v>
+        <v>0.03922433682486083</v>
       </c>
     </row>
     <row r="195">
@@ -11952,13 +11952,13 @@
       </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="n">
-        <v>-0.05802636971618297</v>
+        <v>-0.05638862236191667</v>
       </c>
       <c r="P195" t="n">
         <v>0.00249</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.01119908935522331</v>
+        <v>0.01088300411584992</v>
       </c>
     </row>
     <row r="196">
@@ -12011,13 +12011,13 @@
       </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="n">
-        <v>-0.05128317752763881</v>
+        <v>-0.04866241420909781</v>
       </c>
       <c r="P196" t="n">
         <v>0.00321</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.1405159064257303</v>
+        <v>0.133335014932928</v>
       </c>
     </row>
     <row r="197">
@@ -12070,13 +12070,13 @@
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="n">
-        <v>-0.04180836827163312</v>
+        <v>-0.04088847818264126</v>
       </c>
       <c r="P197" t="n">
         <v>0.0039</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.03792019002237124</v>
+        <v>0.03708584971165562</v>
       </c>
     </row>
     <row r="198">
@@ -12129,13 +12129,13 @@
       </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="n">
-        <v>-0.1246325869185088</v>
+        <v>-0.1164962851798361</v>
       </c>
       <c r="P198" t="n">
         <v>0.00147</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.1156590406603761</v>
+        <v>0.1081085526468879</v>
       </c>
     </row>
     <row r="199">
@@ -12188,13 +12188,13 @@
       </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="n">
-        <v>-0.08855094251622167</v>
+        <v>-0.08384478720819967</v>
       </c>
       <c r="P199" t="n">
         <v>0.00181</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.04719765236114615</v>
+        <v>0.04468927158197043</v>
       </c>
     </row>
     <row r="200">
@@ -12247,13 +12247,13 @@
       </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="n">
-        <v>-0.08482893176613379</v>
+        <v>-0.07804112557549658</v>
       </c>
       <c r="P200" t="n">
         <v>0.00222</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.00685417768670361</v>
+        <v>0.006305722946500124</v>
       </c>
     </row>
     <row r="201">
@@ -12306,13 +12306,13 @@
       </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="n">
-        <v>-0.07109368436421248</v>
+        <v>-0.06694124952164192</v>
       </c>
       <c r="P201" t="n">
         <v>0.00264</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.08389054754977072</v>
+        <v>0.07899067443553746</v>
       </c>
     </row>
     <row r="202">
@@ -12365,13 +12365,13 @@
       </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="n">
-        <v>-0.1300524855210681</v>
+        <v>-0.1205517717802556</v>
       </c>
       <c r="P202" t="n">
         <v>0.00208</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.05306141409259577</v>
+        <v>0.04918512288634427</v>
       </c>
     </row>
     <row r="203">
@@ -12424,13 +12424,13 @@
       </c>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="n">
-        <v>-0.1301508646780882</v>
+        <v>-0.1184432950773616</v>
       </c>
       <c r="P203" t="n">
         <v>0.00251</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.03409952654565911</v>
+        <v>0.03103214331026875</v>
       </c>
     </row>
     <row r="204">
@@ -12483,13 +12483,13 @@
       </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="n">
-        <v>-0.142942825358912</v>
+        <v>-0.1244390306892022</v>
       </c>
       <c r="P204" t="n">
         <v>0.00287</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.03859456284690623</v>
+        <v>0.0335985382860846</v>
       </c>
     </row>
     <row r="205">
@@ -12542,13 +12542,13 @@
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="n">
-        <v>-0.12593570665052</v>
+        <v>-0.1107178584419791</v>
       </c>
       <c r="P205" t="n">
         <v>0.00326</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.001231651211042086</v>
+        <v>0.001082820655562556</v>
       </c>
     </row>
     <row r="206">
@@ -12601,13 +12601,13 @@
       </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="n">
-        <v>-0.1067389972860606</v>
+        <v>-0.1082252084768528</v>
       </c>
       <c r="P206" t="n">
         <v>0.00314</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.07397012511924</v>
+        <v>0.07500006947445896</v>
       </c>
     </row>
     <row r="207">
@@ -12660,13 +12660,13 @@
       </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="n">
-        <v>-0.1781912397933324</v>
+        <v>-0.1566806385946684</v>
       </c>
       <c r="P207" t="n">
         <v>0.00379</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.07002915723877963</v>
+        <v>0.06157549096770468</v>
       </c>
     </row>
     <row r="208">
@@ -12719,13 +12719,13 @@
       </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="n">
-        <v>-0.2380199084495377</v>
+        <v>-0.1943031700178283</v>
       </c>
       <c r="P208" t="n">
         <v>0.00437</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.2061252407172997</v>
+        <v>0.1682665452354393</v>
       </c>
     </row>
     <row r="209">
@@ -12778,13 +12778,13 @@
       </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="n">
-        <v>-0.2200967001077499</v>
+        <v>-0.178691065220554</v>
       </c>
       <c r="P209" t="n">
         <v>0.00479</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.01366800507669127</v>
+        <v>0.0110967151501964</v>
       </c>
     </row>
     <row r="210">
@@ -12837,13 +12837,13 @@
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="n">
-        <v>-0.1574127957175586</v>
+        <v>-0.1621247013514635</v>
       </c>
       <c r="P210" t="n">
         <v>0.0385</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.3384375107927511</v>
+        <v>0.3485681079056465</v>
       </c>
     </row>
     <row r="211">
@@ -12896,13 +12896,13 @@
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="n">
-        <v>-0.1053702118120793</v>
+        <v>-0.1090621999916278</v>
       </c>
       <c r="P211" t="n">
         <v>0.0508</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.2212774448053665</v>
+        <v>0.2290306199824184</v>
       </c>
     </row>
     <row r="212">
@@ -12955,13 +12955,13 @@
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="n">
-        <v>-0.1998985508118133</v>
+        <v>-0.206943424542965</v>
       </c>
       <c r="P212" t="n">
         <v>0.026</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.6716591307276927</v>
+        <v>0.6953299064643622</v>
       </c>
     </row>
     <row r="213">
@@ -13014,13 +13014,13 @@
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="n">
-        <v>-0.1557331921103323</v>
+        <v>-0.1604764406175543</v>
       </c>
       <c r="P213" t="n">
         <v>0.0332</v>
       </c>
       <c r="Q213" t="n">
-        <v>1.191358919644042</v>
+        <v>1.22764477072429</v>
       </c>
     </row>
     <row r="214">
@@ -13073,13 +13073,13 @@
       </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="n">
-        <v>-0.1509257651490479</v>
+        <v>-0.1488071164805766</v>
       </c>
       <c r="P214" t="n">
         <v>0.0379</v>
       </c>
       <c r="Q214" t="n">
-        <v>1.310035641493736</v>
+        <v>1.291645771051405</v>
       </c>
     </row>
     <row r="215">
@@ -13132,13 +13132,13 @@
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="n">
-        <v>-0.1368508809071483</v>
+        <v>-0.134939512664075</v>
       </c>
       <c r="P215" t="n">
         <v>0.0491</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.7855240564070313</v>
+        <v>0.7745528026917905</v>
       </c>
     </row>
     <row r="216">
@@ -13191,13 +13191,13 @@
       </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="n">
-        <v>-0.2017426482726766</v>
+        <v>-0.2204398876678854</v>
       </c>
       <c r="P216" t="n">
         <v>0.047</v>
       </c>
       <c r="Q216" t="n">
-        <v>0.1252821845773321</v>
+        <v>0.1368931702417568</v>
       </c>
     </row>
     <row r="217">
@@ -13250,13 +13250,13 @@
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="n">
-        <v>-0.2174403995508002</v>
+        <v>-0.2264158576242296</v>
       </c>
       <c r="P217" t="n">
         <v>0.058</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.4087879511555043</v>
+        <v>0.4256618123335517</v>
       </c>
     </row>
     <row r="218">
@@ -13309,13 +13309,13 @@
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="n">
-        <v>-0.2413461688159104</v>
+        <v>-0.232743781922136</v>
       </c>
       <c r="P218" t="n">
         <v>0.0522</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.6540481174911172</v>
+        <v>0.6307356490089887</v>
       </c>
     </row>
     <row r="219">
@@ -13368,13 +13368,13 @@
       </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="n">
-        <v>-0.2269480557339979</v>
+        <v>-0.2160842869168415</v>
       </c>
       <c r="P219" t="n">
         <v>0.0643</v>
       </c>
       <c r="Q219" t="n">
-        <v>12.30058462078269</v>
+        <v>11.71176835089281</v>
       </c>
     </row>
     <row r="220">
@@ -13427,13 +13427,13 @@
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="n">
-        <v>-0.001861377739504376</v>
+        <v>-0.001986881884082608</v>
       </c>
       <c r="P220" t="n">
         <v>0.0059</v>
       </c>
       <c r="Q220" t="n">
-        <v>0.001025619134466912</v>
+        <v>0.001094771918129517</v>
       </c>
     </row>
     <row r="221">
@@ -13486,13 +13486,13 @@
       </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="n">
-        <v>-0.001153986588699015</v>
+        <v>-0.001185972318202492</v>
       </c>
       <c r="P221" t="n">
         <v>0.00877</v>
       </c>
       <c r="Q221" t="n">
-        <v>0.002088715725545217</v>
+        <v>0.00214660989594651</v>
       </c>
     </row>
     <row r="222">
@@ -13545,13 +13545,13 @@
       </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="n">
-        <v>-0.0009974210556657856</v>
+        <v>-0.0009589990281552227</v>
       </c>
       <c r="P222" t="n">
         <v>0.0125</v>
       </c>
       <c r="Q222" t="n">
-        <v>0.00111711158234568</v>
+        <v>0.001074078911533849</v>
       </c>
     </row>
     <row r="223">
@@ -13604,13 +13604,13 @@
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="n">
-        <v>-0.0007601039978294115</v>
+        <v>-0.0008088156146534998</v>
       </c>
       <c r="P223" t="n">
         <v>0.0187</v>
       </c>
       <c r="Q223" t="n">
-        <v>9.577310372650585e-05</v>
+        <v>0.000101910767446341</v>
       </c>
     </row>
     <row r="224">
@@ -13663,13 +13663,13 @@
       </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="n">
-        <v>-0.002369759404900378</v>
+        <v>-0.002598811171210717</v>
       </c>
       <c r="P224" t="n">
         <v>0.00392</v>
       </c>
       <c r="Q224" t="n">
-        <v>0.0004147078958575661</v>
+        <v>0.0004547919549618755</v>
       </c>
     </row>
     <row r="225">
@@ -13722,13 +13722,13 @@
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="n">
-        <v>-0.001742618111226815</v>
+        <v>-0.001786293090998854</v>
       </c>
       <c r="P225" t="n">
         <v>0.00548</v>
       </c>
       <c r="Q225" t="n">
-        <v>0.003049581694646926</v>
+        <v>0.003126012909247994</v>
       </c>
     </row>
     <row r="226">
@@ -13781,13 +13781,13 @@
       </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="n">
-        <v>-0.001663056184088504</v>
+        <v>-0.00155606548980292</v>
       </c>
       <c r="P226" t="n">
         <v>0.00779</v>
       </c>
       <c r="Q226" t="n">
-        <v>0.0003841659785244444</v>
+        <v>0.0003594511281444746</v>
       </c>
     </row>
     <row r="227">
@@ -13840,13 +13840,13 @@
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="n">
-        <v>-0.001311981417715841</v>
+        <v>-0.00133476284198251</v>
       </c>
       <c r="P227" t="n">
         <v>0.0115</v>
       </c>
       <c r="Q227" t="n">
-        <v>0.0002938838375683484</v>
+        <v>0.0002989868766040821</v>
       </c>
     </row>
     <row r="228">
@@ -13899,13 +13899,13 @@
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="n">
-        <v>-0.002395298198324143</v>
+        <v>-0.002926769020453213</v>
       </c>
       <c r="P228" t="n">
         <v>0.00465</v>
       </c>
       <c r="Q228" t="n">
-        <v>0.0004143865883100767</v>
+        <v>0.0005063310405384057</v>
       </c>
     </row>
     <row r="229">
@@ -13958,13 +13958,13 @@
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="n">
-        <v>-0.002483460651633127</v>
+        <v>-0.002590314526067805</v>
       </c>
       <c r="P229" t="n">
         <v>0.00647</v>
       </c>
       <c r="Q229" t="n">
-        <v>0.0008021577904774999</v>
+        <v>0.0008366715919199012</v>
       </c>
     </row>
     <row r="230">
@@ -14017,13 +14017,13 @@
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="n">
-        <v>-0.002718575631881604</v>
+        <v>-0.002443164369449947</v>
       </c>
       <c r="P230" t="n">
         <v>0.009129999999999999</v>
       </c>
       <c r="Q230" t="n">
-        <v>0.00377882012831543</v>
+        <v>0.003395998473535426</v>
       </c>
     </row>
     <row r="231">
@@ -14076,13 +14076,13 @@
       </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="n">
-        <v>-0.002267720491229397</v>
+        <v>-0.002144802564957552</v>
       </c>
       <c r="P231" t="n">
         <v>0.0127</v>
       </c>
       <c r="Q231" t="n">
-        <v>0.000775560408000454</v>
+        <v>0.0007335224772154829</v>
       </c>
     </row>
     <row r="232">
@@ -14135,13 +14135,13 @@
       </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="n">
-        <v>-0.001868079804222443</v>
+        <v>-0.002996969015603699</v>
       </c>
       <c r="P232" t="n">
         <v>0.00675</v>
       </c>
       <c r="Q232" t="n">
-        <v>0.0002876842898502562</v>
+        <v>0.0004615332284029697</v>
       </c>
     </row>
     <row r="233">
@@ -14194,13 +14194,13 @@
       </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="n">
-        <v>-0.003138462025268574</v>
+        <v>-0.003466186119679437</v>
       </c>
       <c r="P233" t="n">
         <v>0.00976</v>
       </c>
       <c r="Q233" t="n">
-        <v>0.0009038770632773492</v>
+        <v>0.0009982616024676778</v>
       </c>
     </row>
     <row r="234">
@@ -14253,13 +14253,13 @@
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="n">
-        <v>-0.004260668107575728</v>
+        <v>-0.003721720275457151</v>
       </c>
       <c r="P234" t="n">
         <v>0.0124</v>
       </c>
       <c r="Q234" t="n">
-        <v>0.002973946339087858</v>
+        <v>0.002597760752269091</v>
       </c>
     </row>
     <row r="235">
@@ -14312,13 +14312,13 @@
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="n">
-        <v>-0.003996417757124423</v>
+        <v>-0.003458872727273111</v>
       </c>
       <c r="P235" t="n">
         <v>0.0176</v>
       </c>
       <c r="Q235" t="n">
-        <v>0.0349686553748387</v>
+        <v>0.03026513636363972</v>
       </c>
     </row>
     <row r="236">
@@ -14371,13 +14371,13 @@
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="n">
-        <v>-0.00498966681183089</v>
+        <v>-0.005091206983492138</v>
       </c>
       <c r="P236" t="n">
         <v>0.00236</v>
       </c>
       <c r="Q236" t="n">
-        <v>0.01077768031355472</v>
+        <v>0.01099700708434302</v>
       </c>
     </row>
     <row r="237">
@@ -14430,13 +14430,13 @@
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="n">
-        <v>-0.003000814372667296</v>
+        <v>-0.002999020361071511</v>
       </c>
       <c r="P237" t="n">
         <v>0.0035</v>
       </c>
       <c r="Q237" t="n">
-        <v>0.002568697103003205</v>
+        <v>0.002567161429077214</v>
       </c>
     </row>
     <row r="238">
@@ -14489,13 +14489,13 @@
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="n">
-        <v>-0.002591476746066589</v>
+        <v>-0.002472426502171504</v>
       </c>
       <c r="P238" t="n">
         <v>0.00515</v>
       </c>
       <c r="Q238" t="n">
-        <v>0.01492690605734355</v>
+        <v>0.01424117665250786</v>
       </c>
     </row>
     <row r="239">
@@ -14548,13 +14548,13 @@
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="n">
-        <v>-0.002074928767064334</v>
+        <v>-0.002171632291851433</v>
       </c>
       <c r="P239" t="n">
         <v>0.00692</v>
       </c>
       <c r="Q239" t="n">
-        <v>0.001215908257499699</v>
+        <v>0.00127257652302494</v>
       </c>
     </row>
     <row r="240">
@@ -14607,13 +14607,13 @@
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="n">
-        <v>-0.006436497439672149</v>
+        <v>-0.00659628971728781</v>
       </c>
       <c r="P240" t="n">
         <v>0.00169</v>
       </c>
       <c r="Q240" t="n">
-        <v>8.818001492350845e-05</v>
+        <v>9.0369169126843e-05</v>
       </c>
     </row>
     <row r="241">
@@ -14666,13 +14666,13 @@
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="n">
-        <v>-0.00459504687626287</v>
+        <v>-0.004516004470503718</v>
       </c>
       <c r="P241" t="n">
         <v>0.00236</v>
       </c>
       <c r="Q241" t="n">
-        <v>0.002623771766346099</v>
+        <v>0.002578638552657623</v>
       </c>
     </row>
     <row r="242">
@@ -14725,13 +14725,13 @@
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="n">
-        <v>-0.004292990150437874</v>
+        <v>-0.003964068445700387</v>
       </c>
       <c r="P242" t="n">
         <v>0.00329</v>
       </c>
       <c r="Q242" t="n">
-        <v>0.003511665943058181</v>
+        <v>0.003242607988582916</v>
       </c>
     </row>
     <row r="243">
@@ -14784,13 +14784,13 @@
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="n">
-        <v>-0.003477612299979984</v>
+        <v>-0.00347452622484873</v>
       </c>
       <c r="P243" t="n">
         <v>0.00452</v>
       </c>
       <c r="Q243" t="n">
-        <v>0.009598209947944756</v>
+        <v>0.009589692380582493</v>
       </c>
     </row>
     <row r="244">
@@ -14843,13 +14843,13 @@
       </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="n">
-        <v>-0.00643692105566146</v>
+        <v>-0.006968906229010908</v>
       </c>
       <c r="P244" t="n">
         <v>0.00213</v>
       </c>
       <c r="Q244" t="n">
-        <v>0.00586403508170759</v>
+        <v>0.006348673574628937</v>
       </c>
     </row>
     <row r="245">
@@ -14902,13 +14902,13 @@
       </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="n">
-        <v>-0.006647037085478565</v>
+        <v>-0.0064276136755594</v>
       </c>
       <c r="P245" t="n">
         <v>0.00291</v>
       </c>
       <c r="Q245" t="n">
-        <v>0.003728987804953475</v>
+        <v>0.003605891271988823</v>
       </c>
     </row>
     <row r="246">
@@ -14961,13 +14961,13 @@
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="n">
-        <v>-0.007261639996180671</v>
+        <v>-0.00635216591302041</v>
       </c>
       <c r="P246" t="n">
         <v>0.00393</v>
       </c>
       <c r="Q246" t="n">
-        <v>0.0004415077117677848</v>
+        <v>0.000386211687511641</v>
       </c>
     </row>
     <row r="247">
@@ -15020,13 +15020,13 @@
       </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="n">
-        <v>-0.00613160766940979</v>
+        <v>-0.005644933719735469</v>
       </c>
       <c r="P247" t="n">
         <v>0.00524</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.001496112271335989</v>
+        <v>0.001377363827615454</v>
       </c>
     </row>
     <row r="248">
@@ -15079,13 +15079,13 @@
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="n">
-        <v>-0.005254326533605448</v>
+        <v>-0.006791516679090481</v>
       </c>
       <c r="P248" t="n">
         <v>0.00301</v>
       </c>
       <c r="Q248" t="n">
-        <v>0.0002868862287348575</v>
+        <v>0.0003708168106783403</v>
       </c>
     </row>
     <row r="249">
@@ -15138,13 +15138,13 @@
       </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="n">
-        <v>-0.008657731488732228</v>
+        <v>-0.008476283867030768</v>
       </c>
       <c r="P249" t="n">
         <v>0.00401</v>
       </c>
       <c r="Q249" t="n">
-        <v>0.001644968982859123</v>
+        <v>0.001610493934735846</v>
       </c>
     </row>
     <row r="250">
@@ -15197,13 +15197,13 @@
       </c>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="n">
-        <v>-0.011663939551874</v>
+        <v>-0.009708610619146952</v>
       </c>
       <c r="P250" t="n">
         <v>0.00524</v>
       </c>
       <c r="Q250" t="n">
-        <v>0.003207583376765351</v>
+        <v>0.002669867920265412</v>
       </c>
     </row>
     <row r="251">
@@ -15256,13 +15256,13 @@
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="n">
-        <v>-0.01058741638402367</v>
+        <v>-0.008869145771006354</v>
       </c>
       <c r="P251" t="n">
         <v>0.00727</v>
       </c>
       <c r="Q251" t="n">
-        <v>0.02604504430469822</v>
+        <v>0.02181809859667563</v>
       </c>
     </row>
     <row r="252">
@@ -15315,13 +15315,13 @@
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="n">
-        <v>-0.01509899127375503</v>
+        <v>-0.01479297452270026</v>
       </c>
       <c r="P252" t="n">
         <v>0.00192</v>
       </c>
       <c r="Q252" t="n">
-        <v>0.0005103459050529199</v>
+        <v>0.0005000025388672687</v>
       </c>
     </row>
     <row r="253">
@@ -15374,13 +15374,13 @@
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="n">
-        <v>-0.009164022267780224</v>
+        <v>-0.008940520738523569</v>
       </c>
       <c r="P253" t="n">
         <v>0.00288</v>
       </c>
       <c r="Q253" t="n">
-        <v>0.001805312386752704</v>
+        <v>0.001761282585489143</v>
       </c>
     </row>
     <row r="254">
@@ -15433,13 +15433,13 @@
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="n">
-        <v>-0.008023596725624362</v>
+        <v>-0.00759503716813592</v>
       </c>
       <c r="P254" t="n">
         <v>0.00418</v>
       </c>
       <c r="Q254" t="n">
-        <v>0.0006194216672182008</v>
+        <v>0.000586336869380093</v>
       </c>
     </row>
     <row r="255">
@@ -15492,13 +15492,13 @@
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="n">
-        <v>-0.006369917319055746</v>
+        <v>-0.00652750820659439</v>
       </c>
       <c r="P255" t="n">
         <v>0.0059</v>
       </c>
       <c r="Q255" t="n">
-        <v>0.007834998302438568</v>
+        <v>0.008028835094111101</v>
       </c>
     </row>
     <row r="256">
@@ -15551,13 +15551,13 @@
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="n">
-        <v>-0.01984587262907684</v>
+        <v>-0.0191193719507762</v>
       </c>
       <c r="P256" t="n">
         <v>0.00138</v>
       </c>
       <c r="Q256" t="n">
-        <v>0.01555916414119624</v>
+        <v>0.01498958760940854</v>
       </c>
     </row>
     <row r="257">
@@ -15610,13 +15610,13 @@
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="n">
-        <v>-0.01411788724086797</v>
+        <v>-0.0133750614184563</v>
       </c>
       <c r="P257" t="n">
         <v>0.00197</v>
       </c>
       <c r="Q257" t="n">
-        <v>0.003924772652961296</v>
+        <v>0.003718267074330851</v>
       </c>
     </row>
     <row r="258">
@@ -15669,13 +15669,13 @@
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="n">
-        <v>-0.01337756662299593</v>
+        <v>-0.01219166433874382</v>
       </c>
       <c r="P258" t="n">
         <v>0.00275</v>
       </c>
       <c r="Q258" t="n">
-        <v>0.002595247924861211</v>
+        <v>0.0023651828817163</v>
       </c>
     </row>
     <row r="259">
@@ -15728,13 +15728,13 @@
       </c>
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="n">
-        <v>-0.0109818422946281</v>
+        <v>-0.01071015956647455</v>
       </c>
       <c r="P259" t="n">
         <v>0.0038</v>
       </c>
       <c r="Q259" t="n">
-        <v>0.004777101398163223</v>
+        <v>0.004658919411416428</v>
       </c>
     </row>
     <row r="260">
@@ -15787,13 +15787,13 @@
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="n">
-        <v>-0.02089418137734077</v>
+        <v>-0.02023833246374782</v>
       </c>
       <c r="P260" t="n">
         <v>0.00178</v>
       </c>
       <c r="Q260" t="n">
-        <v>0.0005620534790504667</v>
+        <v>0.0005444111432748162</v>
       </c>
     </row>
     <row r="261">
@@ -15846,13 +15846,13 @@
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="n">
-        <v>-0.02086893395293395</v>
+        <v>-0.01897020418387005</v>
       </c>
       <c r="P261" t="n">
         <v>0.00244</v>
       </c>
       <c r="Q261" t="n">
-        <v>0.01742555985069985</v>
+        <v>0.01584012049353149</v>
       </c>
     </row>
     <row r="262">
@@ -15905,13 +15905,13 @@
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="n">
-        <v>-0.02259023220379008</v>
+        <v>-0.0192942932240508</v>
       </c>
       <c r="P262" t="n">
         <v>0.00327</v>
       </c>
       <c r="Q262" t="n">
-        <v>0.01719116670708425</v>
+        <v>0.01468295714350266</v>
       </c>
     </row>
     <row r="263">
@@ -15964,13 +15964,13 @@
       </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="n">
-        <v>-0.01925022462624</v>
+        <v>-0.01722624275289183</v>
       </c>
       <c r="P263" t="n">
         <v>0.00439</v>
       </c>
       <c r="Q263" t="n">
-        <v>0.2637280773794881</v>
+        <v>0.2359995257146181</v>
       </c>
     </row>
     <row r="264">
@@ -16023,13 +16023,13 @@
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="n">
-        <v>-0.01743069770333232</v>
+        <v>-0.01873299281664224</v>
       </c>
       <c r="P264" t="n">
         <v>0.0026</v>
       </c>
       <c r="Q264" t="n">
-        <v>0.0103015423426694</v>
+        <v>0.01107119875463556</v>
       </c>
     </row>
     <row r="265">
@@ -16082,13 +16082,13 @@
       </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="n">
-        <v>-0.02878286255607292</v>
+        <v>-0.02538002040857835</v>
       </c>
       <c r="P265" t="n">
         <v>0.00341</v>
       </c>
       <c r="Q265" t="n">
-        <v>0.07368412814354666</v>
+        <v>0.06497285224596058</v>
       </c>
     </row>
     <row r="266">
@@ -16141,13 +16141,13 @@
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="n">
-        <v>-0.03703003976162013</v>
+        <v>-0.02948727545406809</v>
       </c>
       <c r="P266" t="n">
         <v>0.00451</v>
       </c>
       <c r="Q266" t="n">
-        <v>0.003962214254493354</v>
+        <v>0.003155138473585286</v>
       </c>
     </row>
     <row r="267">
@@ -16200,13 +16200,13 @@
       </c>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="n">
-        <v>-0.03418150802936397</v>
+        <v>-0.02760853503251217</v>
       </c>
       <c r="P267" t="n">
         <v>0.00587</v>
       </c>
       <c r="Q267" t="n">
-        <v>0.02091908291397075</v>
+        <v>0.01689642343989745</v>
       </c>
     </row>
     <row r="268">
@@ -16259,13 +16259,13 @@
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="n">
-        <v>-0.04386723829836912</v>
+        <v>-0.04171440033762343</v>
       </c>
       <c r="P268" t="n">
         <v>0.00203</v>
       </c>
       <c r="Q268" t="n">
-        <v>0.006141413361771678</v>
+        <v>0.00584001604726728</v>
       </c>
     </row>
     <row r="269">
@@ -16318,13 +16318,13 @@
       </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="n">
-        <v>-0.02657954261289786</v>
+        <v>-0.02558605037312133</v>
       </c>
       <c r="P269" t="n">
         <v>0.00297</v>
       </c>
       <c r="Q269" t="n">
-        <v>0.01169499874967506</v>
+        <v>0.01125786216417339</v>
       </c>
     </row>
     <row r="270">
@@ -16377,13 +16377,13 @@
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="n">
-        <v>-0.02363336644540695</v>
+        <v>-0.02226837940776374</v>
       </c>
       <c r="P270" t="n">
         <v>0.0042</v>
       </c>
       <c r="Q270" t="n">
-        <v>0.005222973984434936</v>
+        <v>0.004921311849115786</v>
       </c>
     </row>
     <row r="271">
@@ -16436,13 +16436,13 @@
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="n">
-        <v>-0.01913107700602772</v>
+        <v>-0.01912905691251634</v>
       </c>
       <c r="P271" t="n">
         <v>0.00569</v>
       </c>
       <c r="Q271" t="n">
-        <v>0.07155022800254369</v>
+        <v>0.0715426728528111</v>
       </c>
     </row>
     <row r="272">
@@ -16495,13 +16495,13 @@
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="n">
-        <v>-0.05749445167933991</v>
+        <v>-0.05320868782953137</v>
       </c>
       <c r="P272" t="n">
         <v>0.00145</v>
       </c>
       <c r="Q272" t="n">
-        <v>0.006784345298162109</v>
+        <v>0.006278625163884701</v>
       </c>
     </row>
     <row r="273">
@@ -16554,13 +16554,13 @@
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="n">
-        <v>-0.04083378426771489</v>
+        <v>-0.03800419007228022</v>
       </c>
       <c r="P273" t="n">
         <v>0.00203</v>
       </c>
       <c r="Q273" t="n">
-        <v>0.02151940430908575</v>
+        <v>0.02002820816809167</v>
       </c>
     </row>
     <row r="274">
@@ -16613,13 +16613,13 @@
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="n">
-        <v>-0.03916990698626131</v>
+        <v>-0.0354951502217565</v>
       </c>
       <c r="P274" t="n">
         <v>0.00283</v>
       </c>
       <c r="Q274" t="n">
-        <v>0.01237769060765857</v>
+        <v>0.01121646747007505</v>
       </c>
     </row>
     <row r="275">
@@ -16672,13 +16672,13 @@
       </c>
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="n">
-        <v>-0.03325579075384727</v>
+        <v>-0.03171833932948236</v>
       </c>
       <c r="P275" t="n">
         <v>0.00382</v>
       </c>
       <c r="Q275" t="n">
-        <v>0.02158300819924688</v>
+        <v>0.02058520222483405</v>
       </c>
     </row>
     <row r="276">
@@ -16731,13 +16731,13 @@
       </c>
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="n">
-        <v>-0.06043338496732849</v>
+        <v>-0.05497685257681038</v>
       </c>
       <c r="P276" t="n">
         <v>0.00188</v>
       </c>
       <c r="Q276" t="n">
-        <v>0.008279373740524003</v>
+        <v>0.007531828803023022</v>
       </c>
     </row>
     <row r="277">
@@ -16790,13 +16790,13 @@
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="n">
-        <v>-0.06094782635849849</v>
+        <v>-0.05372320641240437</v>
       </c>
       <c r="P277" t="n">
         <v>0.00252</v>
       </c>
       <c r="Q277" t="n">
-        <v>0.0163340174640776</v>
+        <v>0.01439781931852437</v>
       </c>
     </row>
     <row r="278">
@@ -16849,13 +16849,13 @@
       </c>
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="n">
-        <v>-0.06677243439089868</v>
+        <v>-0.05652066199542287</v>
       </c>
       <c r="P278" t="n">
         <v>0.00336</v>
       </c>
       <c r="Q278" t="n">
-        <v>0.05428598915980062</v>
+        <v>0.04595129820227879</v>
       </c>
     </row>
     <row r="279">
@@ -16908,13 +16908,13 @@
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="n">
-        <v>-0.05898620908846699</v>
+        <v>-0.05168363005282002</v>
       </c>
       <c r="P279" t="n">
         <v>0.00443</v>
       </c>
       <c r="Q279" t="n">
-        <v>0.01728295926292083</v>
+        <v>0.01514330360547626</v>
       </c>
     </row>
     <row r="280">
@@ -16967,13 +16967,13 @@
       </c>
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="n">
-        <v>-0.05068067435729577</v>
+        <v>-0.04961757037979336</v>
       </c>
       <c r="P280" t="n">
         <v>0.00276</v>
       </c>
       <c r="Q280" t="n">
-        <v>0.004845072468557476</v>
+        <v>0.004743439728308246</v>
       </c>
     </row>
     <row r="281">
@@ -17026,13 +17026,13 @@
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="n">
-        <v>-0.08474069926641117</v>
+        <v>-0.07133705958586156</v>
       </c>
       <c r="P281" t="n">
         <v>0.0036</v>
       </c>
       <c r="Q281" t="n">
-        <v>0.02584591327625541</v>
+        <v>0.02175780317368778</v>
       </c>
     </row>
     <row r="282">
@@ -17085,13 +17085,13 @@
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="n">
-        <v>-0.1119962978869201</v>
+        <v>-0.08763293682764389</v>
       </c>
       <c r="P282" t="n">
         <v>0.00468</v>
       </c>
       <c r="Q282" t="n">
-        <v>0.04950236366601871</v>
+        <v>0.0387337580778186</v>
       </c>
     </row>
     <row r="283">
@@ -17144,13 +17144,13 @@
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="n">
-        <v>-0.1028262516906387</v>
+        <v>-0.08166916733815276</v>
       </c>
       <c r="P283" t="n">
         <v>0.0062</v>
       </c>
       <c r="Q283" t="n">
-        <v>0.1727481028402729</v>
+        <v>0.1372042011280966</v>
       </c>
     </row>
     <row r="284">
@@ -17203,13 +17203,13 @@
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="n">
-        <v>-0.09728480218682994</v>
+        <v>-0.09474272845030535</v>
       </c>
       <c r="P284" t="n">
         <v>0.00276</v>
       </c>
       <c r="Q284" t="n">
-        <v>0.0448482938081286</v>
+        <v>0.04367639781559077</v>
       </c>
     </row>
     <row r="285">
@@ -17262,13 +17262,13 @@
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="n">
-        <v>-0.06021413537829526</v>
+        <v>-0.05964230000452148</v>
       </c>
       <c r="P285" t="n">
         <v>0.00407</v>
       </c>
       <c r="Q285" t="n">
-        <v>0.003149199280284842</v>
+        <v>0.003119292290236473</v>
       </c>
     </row>
     <row r="286">
@@ -17321,13 +17321,13 @@
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="n">
-        <v>-0.0547781124954394</v>
+        <v>-0.05303267043868105</v>
       </c>
       <c r="P286" t="n">
         <v>0.00574</v>
       </c>
       <c r="Q286" t="n">
-        <v>0.04804040465850035</v>
+        <v>0.04650965197472328</v>
       </c>
     </row>
     <row r="287">
@@ -17380,13 +17380,13 @@
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="n">
-        <v>-0.04637085257574902</v>
+        <v>-0.0465364194143398</v>
       </c>
       <c r="P287" t="n">
         <v>0.00756</v>
       </c>
       <c r="Q287" t="n">
-        <v>0.03844143678529593</v>
+        <v>0.03857869169448769</v>
       </c>
     </row>
     <row r="288">
@@ -17439,13 +17439,13 @@
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="n">
-        <v>-0.1249152534971063</v>
+        <v>-0.1191922655407219</v>
       </c>
       <c r="P288" t="n">
         <v>0.00199</v>
       </c>
       <c r="Q288" t="n">
-        <v>1.324101687069327e-05</v>
+        <v>1.263438014731652e-05</v>
       </c>
     </row>
     <row r="289">
@@ -17498,13 +17498,13 @@
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="n">
-        <v>-0.09253776426185431</v>
+        <v>-0.08933560022637271</v>
       </c>
       <c r="P289" t="n">
         <v>0.00279</v>
       </c>
       <c r="Q289" t="n">
-        <v>0.004404797578864266</v>
+        <v>0.004252374570775342</v>
       </c>
     </row>
     <row r="290">
@@ -17557,13 +17557,13 @@
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="n">
-        <v>-0.09043715916783412</v>
+        <v>-0.08482748358038644</v>
       </c>
       <c r="P290" t="n">
         <v>0.00369</v>
       </c>
       <c r="Q290" t="n">
-        <v>0.04576120253892407</v>
+        <v>0.04292270669167554</v>
       </c>
     </row>
     <row r="291">
@@ -17616,13 +17616,13 @@
       </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="n">
-        <v>-0.07834402899649909</v>
+        <v>-0.07562976700881963</v>
       </c>
       <c r="P291" t="n">
         <v>0.00486</v>
       </c>
       <c r="Q291" t="n">
-        <v>0.001989938336511077</v>
+        <v>0.001920996082024018</v>
       </c>
     </row>
     <row r="292">
@@ -17675,13 +17675,13 @@
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="n">
-        <v>-0.1285125661607814</v>
+        <v>-0.1223036978531761</v>
       </c>
       <c r="P292" t="n">
         <v>0.00268</v>
       </c>
       <c r="Q292" t="n">
-        <v>0.04395129762698723</v>
+        <v>0.04182786466578622</v>
       </c>
     </row>
     <row r="293">
@@ -17734,13 +17734,13 @@
       </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="n">
-        <v>-0.1339127664841021</v>
+        <v>-0.1245450843502917</v>
       </c>
       <c r="P293" t="n">
         <v>0.00349</v>
       </c>
       <c r="Q293" t="n">
-        <v>0.01821213624183789</v>
+        <v>0.01693813147163967</v>
       </c>
     </row>
     <row r="294">
@@ -17793,13 +17793,13 @@
       </c>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="n">
-        <v>-0.153108668517376</v>
+        <v>-0.1360827774680642</v>
       </c>
       <c r="P294" t="n">
         <v>0.00447</v>
       </c>
       <c r="Q294" t="n">
-        <v>0.1306016942453217</v>
+        <v>0.1160786091802588</v>
       </c>
     </row>
     <row r="295">
@@ -17852,13 +17852,13 @@
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="n">
-        <v>-0.1393061427563977</v>
+        <v>-0.1257600905738993</v>
       </c>
       <c r="P295" t="n">
         <v>0.00574</v>
       </c>
       <c r="Q295" t="n">
-        <v>0.05279702810467472</v>
+        <v>0.04766307432750782</v>
       </c>
     </row>
     <row r="296">
@@ -17911,13 +17911,13 @@
       </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="n">
-        <v>-0.1031154009274216</v>
+        <v>-0.1081185610411995</v>
       </c>
       <c r="P296" t="n">
         <v>0.00391</v>
       </c>
       <c r="Q296" t="n">
-        <v>0.005248573907205762</v>
+        <v>0.005503234756997055</v>
       </c>
     </row>
     <row r="297">
@@ -17970,13 +17970,13 @@
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="n">
-        <v>-0.1790404481176154</v>
+        <v>-0.161215648195575</v>
       </c>
       <c r="P297" t="n">
         <v>0.00515</v>
       </c>
       <c r="Q297" t="n">
-        <v>0.1437694798384452</v>
+        <v>0.1294561655010467</v>
       </c>
     </row>
     <row r="298">
@@ -18029,13 +18029,13 @@
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="n">
-        <v>-0.2494513053101766</v>
+        <v>-0.2082139579768382</v>
       </c>
       <c r="P298" t="n">
         <v>0.00669</v>
       </c>
       <c r="Q298" t="n">
-        <v>0.0007957496639394634</v>
+        <v>0.0006642025259461138</v>
       </c>
     </row>
     <row r="299">
@@ -18088,13 +18088,13 @@
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="n">
-        <v>-0.2412864009254034</v>
+        <v>-0.2009078117917808</v>
       </c>
       <c r="P299" t="n">
         <v>0.00851</v>
       </c>
       <c r="Q299" t="n">
-        <v>0.1097853124210586</v>
+        <v>0.09141305436526026</v>
       </c>
     </row>
     <row r="300">
@@ -18147,13 +18147,13 @@
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="n">
-        <v>-0.1779186757315493</v>
+        <v>-0.1854937546238377</v>
       </c>
       <c r="P300" t="n">
         <v>0.00953</v>
       </c>
       <c r="Q300" t="n">
-        <v>0.8682431375699606</v>
+        <v>0.9052095225643281</v>
       </c>
     </row>
     <row r="301">
@@ -18206,13 +18206,13 @@
       </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="n">
-        <v>-0.1158222794571566</v>
+        <v>-0.1206463347349957</v>
       </c>
       <c r="P301" t="n">
         <v>0.0164</v>
       </c>
       <c r="Q301" t="n">
-        <v>0.1378285125540164</v>
+        <v>0.1435691383346448</v>
       </c>
     </row>
     <row r="302">
@@ -18265,13 +18265,13 @@
       </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="n">
-        <v>-0.1095831620338047</v>
+        <v>-0.1101311095642725</v>
       </c>
       <c r="P302" t="n">
         <v>0.0178</v>
       </c>
       <c r="Q302" t="n">
-        <v>47.33992599860362</v>
+        <v>47.57663933176573</v>
       </c>
     </row>
     <row r="303">
@@ -18324,13 +18324,13 @@
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="n">
-        <v>-0.08985963713325062</v>
+        <v>-0.09156786526683586</v>
       </c>
       <c r="P303" t="n">
         <v>0.0238</v>
       </c>
       <c r="Q303" t="n">
-        <v>0.02138659363771365</v>
+        <v>0.02179315193350693</v>
       </c>
     </row>
     <row r="304">
@@ -18383,13 +18383,13 @@
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="n">
-        <v>-0.2218944563783905</v>
+        <v>-0.2342350272728233</v>
       </c>
       <c r="P304" t="n">
         <v>0.00726</v>
       </c>
       <c r="Q304" t="n">
-        <v>0.2662733476540686</v>
+        <v>0.281082032727388</v>
       </c>
     </row>
     <row r="305">
@@ -18442,13 +18442,13 @@
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="n">
-        <v>-0.1722796729875405</v>
+        <v>-0.1797296168025748</v>
       </c>
       <c r="P305" t="n">
         <v>0.009730000000000001</v>
       </c>
       <c r="Q305" t="n">
-        <v>0.1285206360487053</v>
+        <v>0.1340782941347208</v>
       </c>
     </row>
     <row r="306">
@@ -18501,13 +18501,13 @@
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="n">
-        <v>-0.1764249290020875</v>
+        <v>-0.1755581129936594</v>
       </c>
       <c r="P306" t="n">
         <v>0.0128</v>
       </c>
       <c r="Q306" t="n">
-        <v>0.2734586399532356</v>
+        <v>0.2721150751401721</v>
       </c>
     </row>
     <row r="307">
@@ -18560,13 +18560,13 @@
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="n">
-        <v>-0.1591710292405123</v>
+        <v>-0.1584211342655128</v>
       </c>
       <c r="P307" t="n">
         <v>0.0157</v>
       </c>
       <c r="Q307" t="n">
-        <v>0.02737741702936811</v>
+        <v>0.0272484350936682</v>
       </c>
     </row>
     <row r="308">
@@ -18619,13 +18619,13 @@
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="n">
-        <v>-0.2148486097261059</v>
+        <v>-0.2431189586425378</v>
       </c>
       <c r="P308" t="n">
         <v>0.0107</v>
       </c>
       <c r="Q308" t="n">
-        <v>0.255669845574066</v>
+        <v>0.28931156078462</v>
       </c>
     </row>
     <row r="309">
@@ -18678,13 +18678,13 @@
       </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="n">
-        <v>-0.2411364378587749</v>
+        <v>-0.2567936325336768</v>
       </c>
       <c r="P309" t="n">
         <v>0.0138</v>
       </c>
       <c r="Q309" t="n">
-        <v>0.1449229991531237</v>
+        <v>0.1543329731527397</v>
       </c>
     </row>
     <row r="310">
@@ -18737,13 +18737,13 @@
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="n">
-        <v>-0.2815240544037358</v>
+        <v>-0.2765558255215518</v>
       </c>
       <c r="P310" t="n">
         <v>0.0172</v>
       </c>
       <c r="Q310" t="n">
-        <v>0.1461109842355389</v>
+        <v>0.1435324734456854</v>
       </c>
     </row>
     <row r="311">
@@ -18796,13 +18796,13 @@
       </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="n">
-        <v>-0.2718298176105843</v>
+        <v>-0.2616428433172622</v>
       </c>
       <c r="P311" t="n">
         <v>0.0191</v>
       </c>
       <c r="Q311" t="n">
-        <v>0.04213362172964057</v>
+        <v>0.04055464071417564</v>
       </c>
     </row>
     <row r="312">
@@ -18855,13 +18855,13 @@
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="n">
-        <v>-0.1574843027292535</v>
+        <v>-0.2138600244363541</v>
       </c>
       <c r="P312" t="n">
         <v>0.0183</v>
       </c>
       <c r="Q312" t="n">
-        <v>0.5779673910163604</v>
+        <v>0.7848662896814197</v>
       </c>
     </row>
     <row r="313">
@@ -18914,13 +18914,13 @@
       </c>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="n">
-        <v>-0.2896478712228696</v>
+        <v>-0.3227796604273258</v>
       </c>
       <c r="P313" t="n">
         <v>0.0221</v>
       </c>
       <c r="Q313" t="n">
-        <v>0.3128197009206992</v>
+        <v>0.3486020332615119</v>
       </c>
     </row>
     <row r="314">
@@ -18973,13 +18973,13 @@
       </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="n">
-        <v>-0.4389528590994553</v>
+        <v>-0.4311596018148359</v>
       </c>
       <c r="P314" t="n">
         <v>0.0258</v>
       </c>
       <c r="Q314" t="n">
-        <v>0.3164850114107072</v>
+        <v>0.3108660729084967</v>
       </c>
     </row>
     <row r="315">
@@ -19032,13 +19032,13 @@
       </c>
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="n">
-        <v>-0.4447044982002974</v>
+        <v>-0.4146370591297783</v>
       </c>
       <c r="P315" t="n">
         <v>0.0304</v>
       </c>
       <c r="Q315" t="n">
-        <v>0.8004680967605354</v>
+        <v>0.7463467064336009</v>
       </c>
     </row>
     <row r="316">
@@ -19091,13 +19091,13 @@
       </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="n">
-        <v>-0.007457565126108174</v>
+        <v>-0.007462118019624113</v>
       </c>
       <c r="P316" t="n">
         <v>0.0565</v>
       </c>
       <c r="Q316" t="n">
-        <v>0.01230498245807849</v>
+        <v>0.01231249473237979</v>
       </c>
     </row>
     <row r="317">
@@ -19150,13 +19150,13 @@
       </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="n">
-        <v>-0.008836815088347556</v>
+        <v>-0.008896079114877666</v>
       </c>
       <c r="P317" t="n">
         <v>0.0307</v>
       </c>
       <c r="Q317" t="n">
-        <v>0.0006265301897638418</v>
+        <v>0.0006307320092448265</v>
       </c>
     </row>
     <row r="318">
@@ -19209,13 +19209,13 @@
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="n">
-        <v>-0.006488399051319117</v>
+        <v>-0.006305030365223987</v>
       </c>
       <c r="P318" t="n">
         <v>0.0536</v>
       </c>
       <c r="Q318" t="n">
-        <v>0.004399134556794361</v>
+        <v>0.004274810587621864</v>
       </c>
     </row>
     <row r="319">
@@ -19268,13 +19268,13 @@
       </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="n">
-        <v>-0.009033376089532676</v>
+        <v>-0.009429261259767356</v>
       </c>
       <c r="P319" t="n">
         <v>0.0431</v>
       </c>
       <c r="Q319" t="n">
-        <v>0.04733489070915122</v>
+        <v>0.04940932900118095</v>
       </c>
     </row>
     <row r="320">
@@ -19327,13 +19327,13 @@
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="n">
-        <v>-0.009271454583338293</v>
+        <v>-0.00883394062806493</v>
       </c>
       <c r="P320" t="n">
         <v>0.0699</v>
       </c>
       <c r="Q320" t="n">
-        <v>0.01650318915834216</v>
+        <v>0.01572441431795557</v>
       </c>
     </row>
     <row r="321">
@@ -19386,13 +19386,13 @@
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="n">
-        <v>-0.007233990610239429</v>
+        <v>-0.008777817078396017</v>
       </c>
       <c r="P321" t="n">
         <v>0.0608</v>
       </c>
       <c r="Q321" t="n">
-        <v>0.01591477934252675</v>
+        <v>0.01931119757247124</v>
       </c>
     </row>
     <row r="322">
@@ -19445,13 +19445,13 @@
       </c>
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="n">
-        <v>-0.01309798824266876</v>
+        <v>-0.0120609181899154</v>
       </c>
       <c r="P322" t="n">
         <v>0.0677</v>
       </c>
       <c r="Q322" t="n">
-        <v>0.01506268647906908</v>
+        <v>0.01387005591840271</v>
       </c>
     </row>
     <row r="323">
@@ -19504,13 +19504,13 @@
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="n">
-        <v>-0.01566792973140797</v>
+        <v>-0.01543409947025987</v>
       </c>
       <c r="P323" t="n">
         <v>0.00612</v>
       </c>
       <c r="Q323" t="n">
-        <v>0.001537023906651122</v>
+        <v>0.001514085158032493</v>
       </c>
     </row>
     <row r="324">
@@ -19563,13 +19563,13 @@
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="n">
-        <v>-0.009287478373082348</v>
+        <v>-0.009145438623095385</v>
       </c>
       <c r="P324" t="n">
         <v>0.009719999999999999</v>
       </c>
       <c r="Q324" t="n">
-        <v>0.001420984191081599</v>
+        <v>0.001399252109333594</v>
       </c>
     </row>
     <row r="325">
@@ -19622,13 +19622,13 @@
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="n">
-        <v>-0.008283401593112289</v>
+        <v>-0.007954082841930965</v>
       </c>
       <c r="P325" t="n">
         <v>0.0157</v>
       </c>
       <c r="Q325" t="n">
-        <v>0.006485903447406923</v>
+        <v>0.006228046865231946</v>
       </c>
     </row>
     <row r="326">
@@ -19681,13 +19681,13 @@
       </c>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="n">
-        <v>-0.00700532963072523</v>
+        <v>-0.007337527643590976</v>
       </c>
       <c r="P326" t="n">
         <v>0.0243</v>
       </c>
       <c r="Q326" t="n">
-        <v>0.002087588229956118</v>
+        <v>0.002186583237790111</v>
       </c>
     </row>
     <row r="327">
@@ -19740,13 +19740,13 @@
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="n">
-        <v>-0.02032937696751382</v>
+        <v>-0.0196386508869158</v>
       </c>
       <c r="P327" t="n">
         <v>0.00415</v>
       </c>
       <c r="Q327" t="n">
-        <v>0.02642819005776797</v>
+        <v>0.02553024615299054</v>
       </c>
     </row>
     <row r="328">
@@ -19799,13 +19799,13 @@
       </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="n">
-        <v>-0.0146254488980618</v>
+        <v>-0.01393624500963025</v>
       </c>
       <c r="P328" t="n">
         <v>0.00632</v>
       </c>
       <c r="Q328" t="n">
-        <v>0.0003115220615287164</v>
+        <v>0.0002968420187051244</v>
       </c>
     </row>
     <row r="329">
@@ -19858,13 +19858,13 @@
       </c>
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="n">
-        <v>-0.01407730901767046</v>
+        <v>-0.01298018321025924</v>
       </c>
       <c r="P329" t="n">
         <v>0.009140000000000001</v>
       </c>
       <c r="Q329" t="n">
-        <v>0.01375353091026404</v>
+        <v>0.01268163899642328</v>
       </c>
     </row>
     <row r="330">
@@ -19917,13 +19917,13 @@
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="n">
-        <v>-0.01141081006426012</v>
+        <v>-0.01139453347644401</v>
       </c>
       <c r="P330" t="n">
         <v>0.0134</v>
       </c>
       <c r="Q330" t="n">
-        <v>0.06218891485021767</v>
+        <v>0.06210020744661986</v>
       </c>
     </row>
     <row r="331">
@@ -19976,13 +19976,13 @@
       </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="n">
-        <v>-0.02107223115129102</v>
+        <v>-0.02035818483773753</v>
       </c>
       <c r="P331" t="n">
         <v>0.00498</v>
       </c>
       <c r="Q331" t="n">
-        <v>0.3413701446509145</v>
+        <v>0.329802594371348</v>
       </c>
     </row>
     <row r="332">
@@ -20035,13 +20035,13 @@
       </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="n">
-        <v>-0.02144588611320569</v>
+        <v>-0.01948855352459935</v>
       </c>
       <c r="P332" t="n">
         <v>0.00729</v>
       </c>
       <c r="Q332" t="n">
-        <v>0.01902250098241345</v>
+        <v>0.01728634697631963</v>
       </c>
     </row>
     <row r="333">
@@ -20094,13 +20094,13 @@
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="n">
-        <v>-0.02389983430380269</v>
+        <v>-0.02055737809778523</v>
       </c>
       <c r="P333" t="n">
         <v>0.01</v>
       </c>
       <c r="Q333" t="n">
-        <v>0.01166311914025571</v>
+        <v>0.01003200051171919</v>
       </c>
     </row>
     <row r="334">
@@ -20153,13 +20153,13 @@
       </c>
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="n">
-        <v>-0.01994835144051677</v>
+        <v>-0.01813075436919522</v>
       </c>
       <c r="P334" t="n">
         <v>0.0155</v>
       </c>
       <c r="Q334" t="n">
-        <v>0.001611826796393755</v>
+        <v>0.001464964953030974</v>
       </c>
     </row>
     <row r="335">
@@ -20212,13 +20212,13 @@
       </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="n">
-        <v>-0.01733491693463066</v>
+        <v>-0.01839737417207256</v>
       </c>
       <c r="P335" t="n">
         <v>0.00723</v>
       </c>
       <c r="Q335" t="n">
-        <v>0.002964270795821844</v>
+        <v>0.003145950983424407</v>
       </c>
     </row>
     <row r="336">
@@ -20271,13 +20271,13 @@
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="n">
-        <v>-0.02880033547231646</v>
+        <v>-0.02533195654900653</v>
       </c>
       <c r="P336" t="n">
         <v>0.0101</v>
       </c>
       <c r="Q336" t="n">
-        <v>0.007286484874496064</v>
+        <v>0.006408985006898653</v>
       </c>
     </row>
     <row r="337">
@@ -20330,13 +20330,13 @@
       </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="n">
-        <v>-0.03917340232087296</v>
+        <v>-0.03122790190341156</v>
       </c>
       <c r="P337" t="n">
         <v>0.0131</v>
       </c>
       <c r="Q337" t="n">
-        <v>0.05719316738847453</v>
+        <v>0.04559273677898087</v>
       </c>
     </row>
     <row r="338">
@@ -20389,13 +20389,13 @@
       </c>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="n">
-        <v>-0.03614195824022942</v>
+        <v>-0.02947011705153731</v>
       </c>
       <c r="P338" t="n">
         <v>0.0227</v>
       </c>
       <c r="Q338" t="n">
-        <v>0.1069801963910791</v>
+        <v>0.08723154647255042</v>
       </c>
     </row>
     <row r="339">
@@ -20448,13 +20448,13 @@
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="n">
-        <v>-0.04200382171639028</v>
+        <v>-0.04040115599655662</v>
       </c>
       <c r="P339" t="n">
         <v>0.00442</v>
       </c>
       <c r="Q339" t="n">
-        <v>0.07056642048353566</v>
+        <v>0.06787394207421513</v>
       </c>
     </row>
     <row r="340">
@@ -20507,13 +20507,13 @@
       </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="n">
-        <v>-0.02534551153543767</v>
+        <v>-0.02471344318074129</v>
       </c>
       <c r="P340" t="n">
         <v>0.00735</v>
       </c>
       <c r="Q340" t="n">
-        <v>0.03294916499606897</v>
+        <v>0.03212747613496368</v>
       </c>
     </row>
     <row r="341">
@@ -20566,13 +20566,13 @@
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="n">
-        <v>-0.02307944502064478</v>
+        <v>-0.02209708601866855</v>
       </c>
       <c r="P341" t="n">
         <v>0.0116</v>
       </c>
       <c r="Q341" t="n">
-        <v>0.005285192909727655</v>
+        <v>0.005060232698275099</v>
       </c>
     </row>
     <row r="342">
@@ -20625,13 +20625,13 @@
       </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="n">
-        <v>-0.01844808391322827</v>
+        <v>-0.01901857278754747</v>
       </c>
       <c r="P342" t="n">
         <v>0.0164</v>
       </c>
       <c r="Q342" t="n">
-        <v>0.02785660670897469</v>
+        <v>0.02871804490919668</v>
       </c>
     </row>
     <row r="343">
@@ -20684,13 +20684,13 @@
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="n">
-        <v>-0.05395649177097647</v>
+        <v>-0.05044275934269908</v>
       </c>
       <c r="P343" t="n">
         <v>0.00315</v>
       </c>
       <c r="Q343" t="n">
-        <v>0.01553946963004122</v>
+        <v>0.01452751469069733</v>
       </c>
     </row>
     <row r="344">
@@ -20743,13 +20743,13 @@
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="n">
-        <v>-0.03919123050586333</v>
+        <v>-0.03680486867391171</v>
       </c>
       <c r="P344" t="n">
         <v>0.00476</v>
       </c>
       <c r="Q344" t="n">
-        <v>0.003633027067893531</v>
+        <v>0.003411811326071616</v>
       </c>
     </row>
     <row r="345">
@@ -20802,13 +20802,13 @@
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="n">
-        <v>-0.03838925360439335</v>
+        <v>-0.03526942111881606</v>
       </c>
       <c r="P345" t="n">
         <v>0.007</v>
       </c>
       <c r="Q345" t="n">
-        <v>0.02510657185727325</v>
+        <v>0.02306620141170571</v>
       </c>
     </row>
     <row r="346">
@@ -20861,13 +20861,13 @@
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="n">
-        <v>-0.03214618635612534</v>
+        <v>-0.03149191338033056</v>
       </c>
       <c r="P346" t="n">
         <v>0.0102</v>
       </c>
       <c r="Q346" t="n">
-        <v>0.02767786645262392</v>
+        <v>0.02711453742046461</v>
       </c>
     </row>
     <row r="347">
@@ -20920,13 +20920,13 @@
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="n">
-        <v>-0.05658549807413534</v>
+        <v>-0.05194088657565723</v>
       </c>
       <c r="P347" t="n">
         <v>0.00395</v>
       </c>
       <c r="Q347" t="n">
-        <v>0.003168787892151579</v>
+        <v>0.002908689648236805</v>
       </c>
     </row>
     <row r="348">
@@ -20979,13 +20979,13 @@
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="n">
-        <v>-0.05890050266044958</v>
+        <v>-0.05231872883734069</v>
       </c>
       <c r="P348" t="n">
         <v>0.00546</v>
       </c>
       <c r="Q348" t="n">
-        <v>0.01107329450016452</v>
+        <v>0.009835921021420051</v>
       </c>
     </row>
     <row r="349">
@@ -21038,13 +21038,13 @@
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="n">
-        <v>-0.06548957574247549</v>
+        <v>-0.05599009012678646</v>
       </c>
       <c r="P349" t="n">
         <v>0.008200000000000001</v>
       </c>
       <c r="Q349" t="n">
-        <v>0.2960128823559892</v>
+        <v>0.2530752073730748</v>
       </c>
     </row>
     <row r="350">
@@ -21097,13 +21097,13 @@
       </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="n">
-        <v>-0.05822122073572587</v>
+        <v>-0.05205473275455912</v>
       </c>
       <c r="P350" t="n">
         <v>0.0116</v>
       </c>
       <c r="Q350" t="n">
-        <v>0.007976307240794445</v>
+        <v>0.007131498387374599</v>
       </c>
     </row>
     <row r="351">
@@ -21156,13 +21156,13 @@
       </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="n">
-        <v>-0.04709624347630301</v>
+        <v>-0.04640908146953378</v>
       </c>
       <c r="P351" t="n">
         <v>0.00552</v>
       </c>
       <c r="Q351" t="n">
-        <v>0.00640508911277721</v>
+        <v>0.006311635079856594</v>
       </c>
     </row>
     <row r="352">
@@ -21215,13 +21215,13 @@
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="n">
-        <v>-0.07960092124214245</v>
+        <v>-0.06728089508736891</v>
       </c>
       <c r="P352" t="n">
         <v>0.00763</v>
       </c>
       <c r="Q352" t="n">
-        <v>0.002650710677363344</v>
+        <v>0.002240453806409385</v>
       </c>
     </row>
     <row r="353">
@@ -21274,13 +21274,13 @@
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="n">
-        <v>-0.1047935857166307</v>
+        <v>-0.08273313603034838</v>
       </c>
       <c r="P353" t="n">
         <v>0.0112</v>
       </c>
       <c r="Q353" t="n">
-        <v>0.05501663250123111</v>
+        <v>0.0434348964159329</v>
       </c>
     </row>
     <row r="354">
@@ -21333,13 +21333,13 @@
       </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="n">
-        <v>-0.1065499253837628</v>
+        <v>-0.08559356092077065</v>
       </c>
       <c r="P354" t="n">
         <v>0.0142</v>
       </c>
       <c r="Q354" t="n">
-        <v>0.01438423992680798</v>
+        <v>0.01155513072430404</v>
       </c>
     </row>
     <row r="355">
@@ -21392,13 +21392,13 @@
       </c>
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="n">
-        <v>-0.09566782300782668</v>
+        <v>-0.09416078917166013</v>
       </c>
       <c r="P355" t="n">
         <v>0.00572</v>
       </c>
       <c r="Q355" t="n">
-        <v>0.03912813961020111</v>
+        <v>0.03851176277120899</v>
       </c>
     </row>
     <row r="356">
@@ -21451,13 +21451,13 @@
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="n">
-        <v>-0.05970989476534241</v>
+        <v>-0.05981150264505564</v>
       </c>
       <c r="P356" t="n">
         <v>0.009220000000000001</v>
       </c>
       <c r="Q356" t="n">
-        <v>0.1415124505938615</v>
+        <v>0.1417532612687819</v>
       </c>
     </row>
     <row r="357">
@@ -21510,13 +21510,13 @@
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="n">
-        <v>-0.05416607374768197</v>
+        <v>-0.05309166999547452</v>
       </c>
       <c r="P357" t="n">
         <v>0.0134</v>
       </c>
       <c r="Q357" t="n">
-        <v>0.03287880676484296</v>
+        <v>0.03222664368725303</v>
       </c>
     </row>
     <row r="358">
@@ -21569,13 +21569,13 @@
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="n">
-        <v>-0.04721394387264096</v>
+        <v>-0.04850392250265518</v>
       </c>
       <c r="P358" t="n">
         <v>0.0206</v>
       </c>
       <c r="Q358" t="n">
-        <v>0.1137856047330647</v>
+        <v>0.116894453231399</v>
       </c>
     </row>
     <row r="359">
@@ -21628,13 +21628,13 @@
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="n">
-        <v>-0.1228433631052372</v>
+        <v>-0.1185052125645558</v>
       </c>
       <c r="P359" t="n">
         <v>0.00396</v>
       </c>
       <c r="Q359" t="n">
-        <v>0.07886543911356227</v>
+        <v>0.07608034646644481</v>
       </c>
     </row>
     <row r="360">
@@ -21687,13 +21687,13 @@
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="n">
-        <v>-0.09119867586689141</v>
+        <v>-0.08896329463997849</v>
       </c>
       <c r="P360" t="n">
         <v>0.00605</v>
       </c>
       <c r="Q360" t="n">
-        <v>0.05709037109267402</v>
+        <v>0.05569102244462653</v>
       </c>
     </row>
     <row r="361">
@@ -21746,13 +21746,13 @@
       </c>
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="n">
-        <v>-0.09237289093671462</v>
+        <v>-0.08752350686417888</v>
       </c>
       <c r="P361" t="n">
         <v>0.00899</v>
       </c>
       <c r="Q361" t="n">
-        <v>0.04267627561276216</v>
+        <v>0.04043586017125064</v>
       </c>
     </row>
     <row r="362">
@@ -21805,13 +21805,13 @@
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="n">
-        <v>-0.080794217902234</v>
+        <v>-0.07974944206008214</v>
       </c>
       <c r="P362" t="n">
         <v>0.0125</v>
       </c>
       <c r="Q362" t="n">
-        <v>0.06374663792486263</v>
+        <v>0.06292230978540481</v>
       </c>
     </row>
     <row r="363">
@@ -21864,13 +21864,13 @@
       </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="n">
-        <v>-0.1246213928675715</v>
+        <v>-0.1202364313465155</v>
       </c>
       <c r="P363" t="n">
         <v>0.00501</v>
       </c>
       <c r="Q363" t="n">
-        <v>0.0371371750745363</v>
+        <v>0.03583045654126162</v>
       </c>
     </row>
     <row r="364">
@@ -21923,13 +21923,13 @@
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="n">
-        <v>-0.1314556469199328</v>
+        <v>-0.1230156080143103</v>
       </c>
       <c r="P364" t="n">
         <v>0.00716</v>
       </c>
       <c r="Q364" t="n">
-        <v>0.0592864967608897</v>
+        <v>0.05548003921445396</v>
       </c>
     </row>
     <row r="365">
@@ -21982,13 +21982,13 @@
       </c>
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="n">
-        <v>-0.1553016022974407</v>
+        <v>-0.1392838587822459</v>
       </c>
       <c r="P365" t="n">
         <v>0.0106</v>
       </c>
       <c r="Q365" t="n">
-        <v>0.07858261076250501</v>
+        <v>0.07047763254381645</v>
       </c>
     </row>
     <row r="366">
@@ -22041,13 +22041,13 @@
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="n">
-        <v>-0.1433948351109</v>
+        <v>-0.1317516716188862</v>
       </c>
       <c r="P366" t="n">
         <v>0.0141</v>
       </c>
       <c r="Q366" t="n">
-        <v>0.209356459261914</v>
+        <v>0.1923574405635738</v>
       </c>
     </row>
     <row r="367">
@@ -22100,13 +22100,13 @@
       </c>
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="n">
-        <v>-0.09738416750716178</v>
+        <v>-0.1044927806579532</v>
       </c>
       <c r="P367" t="n">
         <v>0.00727</v>
       </c>
       <c r="Q367" t="n">
-        <v>0.01850299182636074</v>
+        <v>0.0198536283250111</v>
       </c>
     </row>
     <row r="368">
@@ -22159,13 +22159,13 @@
       </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="n">
-        <v>-0.1764636249094735</v>
+        <v>-0.1604516233744899</v>
       </c>
       <c r="P368" t="n">
         <v>0.00979</v>
       </c>
       <c r="Q368" t="n">
-        <v>0.232931984880505</v>
+        <v>0.2117961428543267</v>
       </c>
     </row>
     <row r="369">
@@ -22218,13 +22218,13 @@
       </c>
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="n">
-        <v>-0.2553667790780646</v>
+        <v>-0.215396280277189</v>
       </c>
       <c r="P369" t="n">
         <v>0.0139</v>
       </c>
       <c r="Q369" t="n">
-        <v>0.04009258431525614</v>
+        <v>0.03381721600351868</v>
       </c>
     </row>
     <row r="370">
@@ -22277,13 +22277,13 @@
       </c>
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="n">
-        <v>-0.2491991868503588</v>
+        <v>-0.2096838570288792</v>
       </c>
       <c r="P370" t="n">
         <v>0.0174</v>
       </c>
       <c r="Q370" t="n">
-        <v>0.4012106908290777</v>
+        <v>0.3375910098164955</v>
       </c>
     </row>
     <row r="371">
@@ -22336,13 +22336,13 @@
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="n">
-        <v>-0.1899391219905621</v>
+        <v>-0.1995558484134388</v>
       </c>
       <c r="P371" t="n">
         <v>0.0167</v>
       </c>
       <c r="Q371" t="n">
-        <v>1.378958025651481</v>
+        <v>1.448775459481566</v>
       </c>
     </row>
     <row r="372">
@@ -22395,13 +22395,13 @@
       </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="n">
-        <v>-0.1301269445618758</v>
+        <v>-0.1362229674145062</v>
       </c>
       <c r="P372" t="n">
         <v>0.0267</v>
       </c>
       <c r="Q372" t="n">
-        <v>0.06155004477776723</v>
+        <v>0.06443346358706142</v>
       </c>
     </row>
     <row r="373">
@@ -22454,13 +22454,13 @@
       </c>
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="n">
-        <v>-0.1251147741779228</v>
+        <v>-0.1259664461433881</v>
       </c>
       <c r="P373" t="n">
         <v>0.0456</v>
       </c>
       <c r="Q373" t="n">
-        <v>0.07381771676497446</v>
+        <v>0.07432020322459898</v>
       </c>
     </row>
     <row r="374">
@@ -22513,13 +22513,13 @@
       </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="n">
-        <v>-0.1146890204094319</v>
+        <v>-0.116749997407927</v>
       </c>
       <c r="P374" t="n">
         <v>0.0499</v>
       </c>
       <c r="Q374" t="n">
-        <v>0.4151742538821436</v>
+        <v>0.4226349906166956</v>
       </c>
     </row>
     <row r="375">
@@ -22572,13 +22572,13 @@
       </c>
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="n">
-        <v>-0.237455198740416</v>
+        <v>-0.2534223910440193</v>
       </c>
       <c r="P375" t="n">
         <v>0.0135</v>
       </c>
       <c r="Q375" t="n">
-        <v>0.09047043072009851</v>
+        <v>0.09655393098777136</v>
       </c>
     </row>
     <row r="376">
@@ -22631,13 +22631,13 @@
       </c>
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="n">
-        <v>-0.1972016157942089</v>
+        <v>-0.2072060339236885</v>
       </c>
       <c r="P376" t="n">
         <v>0.0199</v>
       </c>
       <c r="Q376" t="n">
-        <v>0.06389332351732369</v>
+        <v>0.06713475499127508</v>
       </c>
     </row>
     <row r="377">
@@ -22690,13 +22690,13 @@
       </c>
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="n">
-        <v>-0.1968827245583561</v>
+        <v>-0.1974036131347388</v>
       </c>
       <c r="P377" t="n">
         <v>0.0301</v>
       </c>
       <c r="Q377" t="n">
-        <v>0.1403773826101079</v>
+        <v>0.1407487761650687</v>
       </c>
     </row>
     <row r="378">
@@ -22749,13 +22749,13 @@
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="n">
-        <v>-0.1763569494445503</v>
+        <v>-0.1770557913682379</v>
       </c>
       <c r="P378" t="n">
         <v>0.0354</v>
       </c>
       <c r="Q378" t="n">
-        <v>0.5026173059169684</v>
+        <v>0.5046090053994781</v>
       </c>
     </row>
     <row r="379">
@@ -22808,13 +22808,13 @@
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="n">
-        <v>-0.2261422960388097</v>
+        <v>-0.2592411222610322</v>
       </c>
       <c r="P379" t="n">
         <v>0.0182</v>
       </c>
       <c r="Q379" t="n">
-        <v>0.2917235618900645</v>
+        <v>0.3344210477167316</v>
       </c>
     </row>
     <row r="380">
@@ -22867,13 +22867,13 @@
       </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="n">
-        <v>-0.2577573607799859</v>
+        <v>-0.2769612312093586</v>
       </c>
       <c r="P380" t="n">
         <v>0.0236</v>
       </c>
       <c r="Q380" t="n">
-        <v>0.1966688662751293</v>
+        <v>0.2113214194127406</v>
       </c>
     </row>
     <row r="381">
@@ -22926,13 +22926,13 @@
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="n">
-        <v>-0.3008385414634708</v>
+        <v>-0.2973658660248577</v>
       </c>
       <c r="P381" t="n">
         <v>0.0355</v>
       </c>
       <c r="Q381" t="n">
-        <v>0.1215387707512422</v>
+        <v>0.1201358098740425</v>
       </c>
     </row>
     <row r="382">
@@ -22985,13 +22985,13 @@
       </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="n">
-        <v>-0.30836765680783</v>
+        <v>-0.3001227356235805</v>
       </c>
       <c r="P382" t="n">
         <v>0.0513</v>
       </c>
       <c r="Q382" t="n">
-        <v>0.07770864951557314</v>
+        <v>0.07563092937714229</v>
       </c>
     </row>
     <row r="383">
@@ -23044,13 +23044,13 @@
       </c>
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="n">
-        <v>-0.1609110682649071</v>
+        <v>-0.2245218680588922</v>
       </c>
       <c r="P383" t="n">
         <v>0.0251</v>
       </c>
       <c r="Q383" t="n">
-        <v>0.991212180511828</v>
+        <v>1.383054707242776</v>
       </c>
     </row>
     <row r="384">
@@ -23103,13 +23103,13 @@
       </c>
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="n">
-        <v>-0.3135087505059657</v>
+        <v>-0.3531534411573239</v>
       </c>
       <c r="P384" t="n">
         <v>0.0401</v>
       </c>
       <c r="Q384" t="n">
-        <v>7.367455636890194</v>
+        <v>8.299105867197111</v>
       </c>
     </row>
     <row r="385">
@@ -23162,13 +23162,13 @@
       </c>
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="n">
-        <v>-0.464637312130021</v>
+        <v>-0.4611976056018407</v>
       </c>
       <c r="P385" t="n">
         <v>0.0407</v>
       </c>
       <c r="Q385" t="n">
-        <v>0.2058343292735993</v>
+        <v>0.2043105392816154</v>
       </c>
     </row>
     <row r="386">
@@ -23221,13 +23221,13 @@
       </c>
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="n">
-        <v>-0.4897690810894229</v>
+        <v>-0.4638919598711633</v>
       </c>
       <c r="P386" t="n">
         <v>0.0622</v>
       </c>
       <c r="Q386" t="n">
-        <v>0.3541030456276527</v>
+        <v>0.3353938869868511</v>
       </c>
     </row>
     <row r="387">
@@ -23280,13 +23280,13 @@
       </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="n">
-        <v>-0.05155166698751931</v>
+        <v>-0.04994638336971943</v>
       </c>
       <c r="P387" t="n">
         <v>0.0245</v>
       </c>
       <c r="Q387" t="n">
-        <v>0.03716875189800142</v>
+        <v>0.03601134240956771</v>
       </c>
     </row>
     <row r="388">
@@ -23339,13 +23339,13 @@
       </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="n">
-        <v>-0.03197910741233766</v>
+        <v>-0.03149929889604455</v>
       </c>
       <c r="P388" t="n">
         <v>0.038</v>
       </c>
       <c r="Q388" t="n">
-        <v>0.01880371515845454</v>
+        <v>0.01852158775087419</v>
       </c>
     </row>
     <row r="389">
@@ -23398,13 +23398,13 @@
       </c>
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="n">
-        <v>-0.02909176970732349</v>
+        <v>-0.02820505412694778</v>
       </c>
       <c r="P389" t="n">
         <v>0.06</v>
       </c>
       <c r="Q389" t="n">
-        <v>0.02120790011663883</v>
+        <v>0.02056148445854493</v>
       </c>
     </row>
     <row r="390">
@@ -23457,13 +23457,13 @@
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="n">
-        <v>-0.0241562828389446</v>
+        <v>-0.02522097927374308</v>
       </c>
       <c r="P390" t="n">
         <v>0.093</v>
       </c>
       <c r="Q390" t="n">
-        <v>0.1661952259319389</v>
+        <v>0.1735203374033524</v>
       </c>
     </row>
     <row r="391">
@@ -23516,13 +23516,13 @@
       </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="n">
-        <v>-0.06690938135206825</v>
+        <v>-0.06296653382317198</v>
       </c>
       <c r="P391" t="n">
         <v>0.0164</v>
       </c>
       <c r="Q391" t="n">
-        <v>0.001906917368533945</v>
+        <v>0.001794546213960401</v>
       </c>
     </row>
     <row r="392">
@@ -23575,13 +23575,13 @@
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="n">
-        <v>-0.04924084834150678</v>
+        <v>-0.04671152937490006</v>
       </c>
       <c r="P392" t="n">
         <v>0.0254</v>
       </c>
       <c r="Q392" t="n">
-        <v>0.001733277861621039</v>
+        <v>0.001644245833996482</v>
       </c>
     </row>
     <row r="393">
@@ -23634,13 +23634,13 @@
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="n">
-        <v>-0.04906955447691393</v>
+        <v>-0.0456250110327299</v>
       </c>
       <c r="P393" t="n">
         <v>0.0383</v>
       </c>
       <c r="Q393" t="n">
-        <v>0.04082586932479239</v>
+        <v>0.03796000917923127</v>
       </c>
     </row>
     <row r="394">
@@ -23693,13 +23693,13 @@
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="n">
-        <v>-0.04249563118596811</v>
+        <v>-0.04222251553494208</v>
       </c>
       <c r="P394" t="n">
         <v>0.055</v>
       </c>
       <c r="Q394" t="n">
-        <v>0.06544327202639089</v>
+        <v>0.06502267392381081</v>
       </c>
     </row>
     <row r="395">
@@ -23752,13 +23752,13 @@
       </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="n">
-        <v>-0.06874497349584052</v>
+        <v>-0.06342864797553836</v>
       </c>
       <c r="P395" t="n">
         <v>0.0196</v>
       </c>
       <c r="Q395" t="n">
-        <v>0.008661866660475906</v>
+        <v>0.007992009644917834</v>
       </c>
     </row>
     <row r="396">
@@ -23811,13 +23811,13 @@
       </c>
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="n">
-        <v>-0.07264236620099648</v>
+        <v>-0.0649990874924765</v>
       </c>
       <c r="P396" t="n">
         <v>0.029</v>
       </c>
       <c r="Q396" t="n">
-        <v>0.0103152160005415</v>
+        <v>0.009229870423931662</v>
       </c>
     </row>
     <row r="397">
@@ -23870,13 +23870,13 @@
       </c>
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="n">
-        <v>-0.08369937819348612</v>
+        <v>-0.07234319753236609</v>
       </c>
       <c r="P397" t="n">
         <v>0.043</v>
       </c>
       <c r="Q397" t="n">
-        <v>0.00862103595392907</v>
+        <v>0.007451349345833707</v>
       </c>
     </row>
     <row r="398">
@@ -23929,13 +23929,13 @@
       </c>
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="n">
-        <v>-0.07451433072856761</v>
+        <v>-0.06764693600921209</v>
       </c>
       <c r="P398" t="n">
         <v>0.0605</v>
       </c>
       <c r="Q398" t="n">
-        <v>0.06609421135623947</v>
+        <v>0.06000283224017113</v>
       </c>
     </row>
     <row r="399">
@@ -23988,13 +23988,13 @@
       </c>
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="n">
-        <v>-0.0561963277224213</v>
+        <v>-0.05612407793139162</v>
       </c>
       <c r="P399" t="n">
         <v>0.0264</v>
       </c>
       <c r="Q399" t="n">
-        <v>0.04068614127103302</v>
+        <v>0.04063383242232753</v>
       </c>
     </row>
     <row r="400">
@@ -24047,13 +24047,13 @@
       </c>
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="n">
-        <v>-0.1007090936548527</v>
+        <v>-0.08560604121135333</v>
       </c>
       <c r="P400" t="n">
         <v>0.0378</v>
       </c>
       <c r="Q400" t="n">
-        <v>0.0434056193652415</v>
+        <v>0.03689620376209329</v>
       </c>
     </row>
     <row r="401">
@@ -24106,13 +24106,13 @@
       </c>
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="n">
-        <v>-0.1377926523992397</v>
+        <v>-0.109692497304145</v>
       </c>
       <c r="P401" t="n">
         <v>0.0536</v>
       </c>
       <c r="Q401" t="n">
-        <v>0.06710502171842971</v>
+        <v>0.05342024618711862</v>
       </c>
     </row>
     <row r="402">
@@ -24165,13 +24165,13 @@
       </c>
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="n">
-        <v>-0.1358321243278543</v>
+        <v>-0.1103397198137797</v>
       </c>
       <c r="P402" t="n">
         <v>0.0774</v>
       </c>
       <c r="Q402" t="n">
-        <v>0.3545218444956997</v>
+        <v>0.2879866687139651</v>
       </c>
     </row>
     <row r="403">
@@ -24224,13 +24224,13 @@
       </c>
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="n">
-        <v>-0.09881320027874026</v>
+        <v>-0.09853532068557685</v>
       </c>
       <c r="P403" t="n">
         <v>0.0149</v>
       </c>
       <c r="Q403" t="n">
-        <v>0.01116589163149765</v>
+        <v>0.01113449123747019</v>
       </c>
     </row>
     <row r="404">
@@ -24283,13 +24283,13 @@
       </c>
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="n">
-        <v>-0.06256690557201156</v>
+        <v>-0.06343557908902617</v>
       </c>
       <c r="P404" t="n">
         <v>0.0236</v>
       </c>
       <c r="Q404" t="n">
-        <v>0.0003128345278600578</v>
+        <v>0.0003171778954451308</v>
       </c>
     </row>
     <row r="405">
@@ -24342,13 +24342,13 @@
       </c>
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="n">
-        <v>-0.05876692726421055</v>
+        <v>-0.05839499053285401</v>
       </c>
       <c r="P405" t="n">
         <v>0.0357</v>
       </c>
       <c r="Q405" t="n">
-        <v>0.0250347110145537</v>
+        <v>0.02487626596699581</v>
       </c>
     </row>
     <row r="406">
@@ -24401,13 +24401,13 @@
       </c>
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="n">
-        <v>-0.05041104132220632</v>
+        <v>-0.05270737831113571</v>
       </c>
       <c r="P406" t="n">
         <v>0.0532</v>
       </c>
       <c r="Q406" t="n">
-        <v>0.1482084614872866</v>
+        <v>0.154959692234739</v>
       </c>
     </row>
     <row r="407">
@@ -24460,13 +24460,13 @@
       </c>
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="n">
-        <v>-0.1262357244693084</v>
+        <v>-0.1234218107399565</v>
       </c>
       <c r="P407" t="n">
         <v>0.0103</v>
       </c>
       <c r="Q407" t="n">
-        <v>0.004834828247174511</v>
+        <v>0.004727055351340336</v>
       </c>
     </row>
     <row r="408">
@@ -24519,13 +24519,13 @@
       </c>
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="n">
-        <v>-0.09635766063805191</v>
+        <v>-0.09510517984222396</v>
       </c>
       <c r="P408" t="n">
         <v>0.0154</v>
       </c>
       <c r="Q408" t="n">
-        <v>0.01850067084250597</v>
+        <v>0.018260194529707</v>
       </c>
     </row>
     <row r="409">
@@ -24578,13 +24578,13 @@
       </c>
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="n">
-        <v>-0.09867398043453643</v>
+        <v>-0.09489501892409415</v>
       </c>
       <c r="P409" t="n">
         <v>0.023</v>
       </c>
       <c r="Q409" t="n">
-        <v>0.0392722442129455</v>
+        <v>0.03776821753178947</v>
       </c>
     </row>
     <row r="410">
@@ -24637,13 +24637,13 @@
       </c>
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="n">
-        <v>-0.08684247827786098</v>
+        <v>-0.08727727955118487</v>
       </c>
       <c r="P410" t="n">
         <v>0.034</v>
       </c>
       <c r="Q410" t="n">
-        <v>0.002917907270136129</v>
+        <v>0.002932516592919812</v>
       </c>
     </row>
     <row r="411">
@@ -24696,13 +24696,13 @@
       </c>
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="n">
-        <v>-0.1270961609162476</v>
+        <v>-0.1245743127659688</v>
       </c>
       <c r="P411" t="n">
         <v>0.0123</v>
       </c>
       <c r="Q411" t="n">
-        <v>0.01715798172369342</v>
+        <v>0.01681753222340579</v>
       </c>
     </row>
     <row r="412">
@@ -24755,13 +24755,13 @@
       </c>
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="n">
-        <v>-0.1386928324461876</v>
+        <v>-0.1316470128069363</v>
       </c>
       <c r="P412" t="n">
         <v>0.0179</v>
       </c>
       <c r="Q412" t="n">
-        <v>0.0005658667563804453</v>
+        <v>0.0005371198122523</v>
       </c>
     </row>
     <row r="413">
@@ -24814,13 +24814,13 @@
       </c>
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="n">
-        <v>-0.1635300092312216</v>
+        <v>-0.1483872754864353</v>
       </c>
       <c r="P413" t="n">
         <v>0.0254</v>
       </c>
       <c r="Q413" t="n">
-        <v>0.008994150507717189</v>
+        <v>0.008161300151753943</v>
       </c>
     </row>
     <row r="414">
@@ -24873,13 +24873,13 @@
       </c>
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="n">
-        <v>-0.1526724515724525</v>
+        <v>-0.1422735034196282</v>
       </c>
       <c r="P414" t="n">
         <v>0.0364</v>
       </c>
       <c r="Q414" t="n">
-        <v>0.01491609851862861</v>
+        <v>0.01390012128409768</v>
       </c>
     </row>
     <row r="415">
@@ -24932,13 +24932,13 @@
       </c>
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="n">
-        <v>-0.09888075101088589</v>
+        <v>-0.1085023894526121</v>
       </c>
       <c r="P415" t="n">
         <v>0.0165</v>
       </c>
       <c r="Q415" t="n">
-        <v>0.005201127503172598</v>
+        <v>0.005707225685207399</v>
       </c>
     </row>
     <row r="416">
@@ -24991,13 +24991,13 @@
       </c>
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="n">
-        <v>-0.1843559757000733</v>
+        <v>-0.1703796251133684</v>
       </c>
       <c r="P416" t="n">
         <v>0.0235</v>
       </c>
       <c r="Q416" t="n">
-        <v>0.01102448734686438</v>
+        <v>0.01018870158177943</v>
       </c>
     </row>
     <row r="417">
@@ -25050,13 +25050,13 @@
       </c>
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="n">
-        <v>-0.2629564350825293</v>
+        <v>-0.2236359080621963</v>
       </c>
       <c r="P417" t="n">
         <v>0.0327</v>
       </c>
       <c r="Q417" t="n">
-        <v>0.06232067511455944</v>
+        <v>0.05300171021074053</v>
       </c>
     </row>
     <row r="418">
@@ -25109,13 +25109,13 @@
       </c>
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="n">
-        <v>-0.2642741724634865</v>
+        <v>-0.2255016176331965</v>
       </c>
       <c r="P418" t="n">
         <v>0.0474</v>
       </c>
       <c r="Q418" t="n">
-        <v>0.07531813915209365</v>
+        <v>0.06426796102546101</v>
       </c>
     </row>
     <row r="419">
@@ -25168,13 +25168,13 @@
       </c>
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="n">
-        <v>-0.2006542496017177</v>
+        <v>-0.212213459821449</v>
       </c>
       <c r="P419" t="n">
         <v>0.0371</v>
       </c>
       <c r="Q419" t="n">
-        <v>0.07624861484865274</v>
+        <v>0.08064111473215063</v>
       </c>
     </row>
     <row r="420">
@@ -25227,13 +25227,13 @@
       </c>
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="n">
-        <v>-0.1410976095468559</v>
+        <v>-0.1482866216123408</v>
       </c>
       <c r="P420" t="n">
         <v>0.0584</v>
       </c>
       <c r="Q420" t="n">
-        <v>0.3019488844302716</v>
+        <v>0.3173333702504093</v>
       </c>
     </row>
     <row r="421">
@@ -25286,13 +25286,13 @@
       </c>
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="n">
-        <v>-0.1361367201891376</v>
+        <v>-0.138242562912377</v>
       </c>
       <c r="P421" t="n">
         <v>0.0856</v>
       </c>
       <c r="Q421" t="n">
-        <v>0.8004839147121288</v>
+        <v>0.8128662699247771</v>
       </c>
     </row>
     <row r="422">
@@ -25345,13 +25345,13 @@
       </c>
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="n">
-        <v>-0.1183287349947102</v>
+        <v>-0.1223565452372224</v>
       </c>
       <c r="P422" t="n">
         <v>0.132</v>
       </c>
       <c r="Q422" t="n">
-        <v>0.8507836046119667</v>
+        <v>0.8797435602556291</v>
       </c>
     </row>
     <row r="423">
@@ -25404,13 +25404,13 @@
       </c>
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="n">
-        <v>-0.2481937356084903</v>
+        <v>-0.2669554167020747</v>
       </c>
       <c r="P423" t="n">
         <v>0.0256</v>
       </c>
       <c r="Q423" t="n">
-        <v>0.04144835384661789</v>
+        <v>0.04458155458924648</v>
       </c>
     </row>
     <row r="424">
@@ -25463,13 +25463,13 @@
       </c>
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="n">
-        <v>-0.2103338284742653</v>
+        <v>-0.2221625576464632</v>
       </c>
       <c r="P424" t="n">
         <v>0.038</v>
       </c>
       <c r="Q424" t="n">
-        <v>0.0202130809163769</v>
+        <v>0.02134982178982511</v>
       </c>
     </row>
     <row r="425">
@@ -25522,13 +25522,13 @@
       </c>
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="n">
-        <v>-0.2173386432482354</v>
+        <v>-0.2188184493139915</v>
       </c>
       <c r="P425" t="n">
         <v>0.058</v>
       </c>
       <c r="Q425" t="n">
-        <v>0.08497940951006003</v>
+        <v>0.08555801368177067</v>
       </c>
     </row>
     <row r="426">
@@ -25581,13 +25581,13 @@
       </c>
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="n">
-        <v>-0.2054343875713989</v>
+        <v>-0.2077435963778811</v>
       </c>
       <c r="P426" t="n">
         <v>0.0833</v>
       </c>
       <c r="Q426" t="n">
-        <v>0.4519556526570777</v>
+        <v>0.4570359120313384</v>
       </c>
     </row>
     <row r="427">
@@ -25640,13 +25640,13 @@
       </c>
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="n">
-        <v>-0.233190055942419</v>
+        <v>-0.2710987401374529</v>
       </c>
       <c r="P427" t="n">
         <v>0.0315</v>
       </c>
       <c r="Q427" t="n">
-        <v>0.02774961665714787</v>
+        <v>0.03226075007635689</v>
       </c>
     </row>
     <row r="428">
@@ -25699,13 +25699,13 @@
       </c>
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="n">
-        <v>-0.2771868824807091</v>
+        <v>-0.3000082942447176</v>
       </c>
       <c r="P428" t="n">
         <v>0.0451</v>
       </c>
       <c r="Q428" t="n">
-        <v>0.07650357956467571</v>
+        <v>0.08280228921154206</v>
       </c>
     </row>
     <row r="429">
@@ -25758,13 +25758,13 @@
       </c>
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="n">
-        <v>-0.3476199257048471</v>
+        <v>-0.3478653123954858</v>
       </c>
       <c r="P429" t="n">
         <v>0.06370000000000001</v>
       </c>
       <c r="Q429" t="n">
-        <v>0.1473908484988552</v>
+        <v>0.147494892455686</v>
       </c>
     </row>
     <row r="430">
@@ -25817,13 +25817,13 @@
       </c>
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="n">
-        <v>-0.3427027317643454</v>
+        <v>-0.3366485949969879</v>
       </c>
       <c r="P430" t="n">
         <v>0.0951</v>
       </c>
       <c r="Q430" t="n">
-        <v>0.06991135727992646</v>
+        <v>0.06867631337938553</v>
       </c>
     </row>
     <row r="431">
@@ -25876,13 +25876,13 @@
       </c>
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="n">
-        <v>-0.1686904926853042</v>
+        <v>-0.24096139811989</v>
       </c>
       <c r="P431" t="n">
         <v>0.0464</v>
       </c>
       <c r="Q431" t="n">
-        <v>0.02058024010760711</v>
+        <v>0.02939729057062658</v>
       </c>
     </row>
     <row r="432">
@@ -25935,13 +25935,13 @@
       </c>
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="n">
-        <v>-0.3275783428531615</v>
+        <v>-0.37643585772938</v>
       </c>
       <c r="P432" t="n">
         <v>0.0654</v>
       </c>
       <c r="Q432" t="n">
-        <v>0.08582552582752832</v>
+        <v>0.09862619472509757</v>
       </c>
     </row>
     <row r="433">
@@ -25994,13 +25994,13 @@
       </c>
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="n">
-        <v>-0.5118129820260308</v>
+        <v>-0.5133475977486591</v>
       </c>
       <c r="P433" t="n">
         <v>0.0882</v>
       </c>
       <c r="Q433" t="n">
-        <v>0.2062606317564904</v>
+        <v>0.2068790818927096</v>
       </c>
     </row>
     <row r="434">
@@ -26053,13 +26053,13 @@
       </c>
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="n">
-        <v>-0.5461067078452092</v>
+        <v>-0.521728268644598</v>
       </c>
       <c r="P434" t="n">
         <v>0.129</v>
       </c>
       <c r="Q434" t="n">
-        <v>0.535184573688305</v>
+        <v>0.511293703271706</v>
       </c>
     </row>
     <row r="435">
@@ -26112,13 +26112,13 @@
       </c>
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="n">
-        <v>-0.1503390601591614</v>
+        <v>-0.1573280268701525</v>
       </c>
       <c r="P435" t="n">
         <v>0.475</v>
       </c>
       <c r="Q435" t="n">
-        <v>0.1046359858707763</v>
+        <v>0.1095003067016262</v>
       </c>
     </row>
     <row r="436">
@@ -26171,13 +26171,13 @@
       </c>
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="n">
-        <v>-0.1847519741877354</v>
+        <v>-0.1929665389333307</v>
       </c>
       <c r="P436" t="n">
         <v>0.33</v>
       </c>
       <c r="Q436" t="n">
-        <v>0.5782736792076119</v>
+        <v>0.6039852668613251</v>
       </c>
     </row>
     <row r="437">
@@ -26230,13 +26230,13 @@
       </c>
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="n">
-        <v>-0.1812175082493867</v>
+        <v>-0.1967706838846601</v>
       </c>
       <c r="P437" t="n">
         <v>0.398</v>
       </c>
       <c r="Q437" t="n">
-        <v>0.08245396625347096</v>
+        <v>0.08953066116752036</v>
       </c>
     </row>
     <row r="438">
@@ -26289,13 +26289,13 @@
       </c>
       <c r="N438" t="inlineStr"/>
       <c r="O438" t="n">
-        <v>-0.2286170708986171</v>
+        <v>-0.2420212806168976</v>
       </c>
       <c r="P438" t="n">
         <v>0.177</v>
       </c>
       <c r="Q438" t="n">
-        <v>0.115223003732903</v>
+        <v>0.1219787254309164</v>
       </c>
     </row>
     <row r="439">
@@ -26348,13 +26348,13 @@
       </c>
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="n">
-        <v>-0.1552577080989702</v>
+        <v>-0.162816960789621</v>
       </c>
       <c r="P439" t="n">
         <v>0.28</v>
       </c>
       <c r="Q439" t="n">
-        <v>0.02794638745781463</v>
+        <v>0.02930705294213177</v>
       </c>
     </row>
     <row r="440">
@@ -26407,13 +26407,13 @@
       </c>
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="n">
-        <v>-0.1426321935709987</v>
+        <v>-0.1453549498781065</v>
       </c>
       <c r="P440" t="n">
         <v>0.46</v>
       </c>
       <c r="Q440" t="n">
-        <v>0.115817341179651</v>
+        <v>0.1180282193010225</v>
       </c>
     </row>
     <row r="441">
@@ -26466,13 +26466,13 @@
       </c>
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="n">
-        <v>-0.2785840835402418</v>
+        <v>-0.3014399542650192</v>
       </c>
       <c r="P441" t="n">
         <v>0.132</v>
       </c>
       <c r="Q441" t="n">
-        <v>0.0111712217499637</v>
+        <v>0.01208774216602727</v>
       </c>
     </row>
     <row r="442">
@@ -26525,13 +26525,13 @@
       </c>
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="n">
-        <v>-0.2364039450661407</v>
+        <v>-0.2492334278531789</v>
       </c>
       <c r="P442" t="n">
         <v>0.19</v>
       </c>
       <c r="Q442" t="n">
-        <v>9.645280958698541</v>
+        <v>10.1687238564097</v>
       </c>
     </row>
     <row r="443">
@@ -26584,13 +26584,13 @@
       </c>
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="n">
-        <v>-0.2411483336653837</v>
+        <v>-0.2433800318855434</v>
       </c>
       <c r="P443" t="n">
         <v>0.319</v>
       </c>
       <c r="Q443" t="n">
-        <v>0.5136459507072673</v>
+        <v>0.5183994679162074</v>
       </c>
     </row>
     <row r="444">
@@ -26643,13 +26643,13 @@
       </c>
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="n">
-        <v>-0.2662897215354425</v>
+        <v>-0.2667968569044483</v>
       </c>
       <c r="P444" t="n">
         <v>0.38</v>
       </c>
       <c r="Q444" t="n">
-        <v>0.8175094451138084</v>
+        <v>0.8190663506966563</v>
       </c>
     </row>
     <row r="445">
@@ -26702,13 +26702,13 @@
       </c>
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="n">
-        <v>-0.2595481615612038</v>
+        <v>-0.3068030014458105</v>
       </c>
       <c r="P445" t="n">
         <v>0.157</v>
       </c>
       <c r="Q445" t="n">
-        <v>0.1116057094713176</v>
+        <v>0.1319252906216985</v>
       </c>
     </row>
     <row r="446">
@@ -26761,13 +26761,13 @@
       </c>
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="n">
-        <v>-0.332662606107494</v>
+        <v>-0.3608039355738172</v>
       </c>
       <c r="P446" t="n">
         <v>0.224</v>
       </c>
       <c r="Q446" t="n">
-        <v>0.5156270394666158</v>
+        <v>0.5592461001394167</v>
       </c>
     </row>
     <row r="447">
@@ -26820,13 +26820,13 @@
       </c>
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="n">
-        <v>-0.4299576760147554</v>
+        <v>-0.4301907833490723</v>
       </c>
       <c r="P447" t="n">
         <v>0.368</v>
       </c>
       <c r="Q447" t="n">
-        <v>1.668235782937251</v>
+        <v>1.669140239394401</v>
       </c>
     </row>
     <row r="448">
@@ -26879,13 +26879,13 @@
       </c>
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="n">
-        <v>-0.1919157596197499</v>
+        <v>-0.2798724692214376</v>
       </c>
       <c r="P448" t="n">
         <v>0.182</v>
       </c>
       <c r="Q448" t="n">
-        <v>0.02878736394296248</v>
+        <v>0.04198087038321564</v>
       </c>
     </row>
     <row r="449">
@@ -26938,13 +26938,13 @@
       </c>
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="n">
-        <v>-0.3580288678407531</v>
+        <v>-0.4179216441837529</v>
       </c>
       <c r="P449" t="n">
         <v>0.315</v>
       </c>
       <c r="Q449" t="n">
-        <v>0.6050687866508727</v>
+        <v>0.7062875786705425</v>
       </c>
     </row>
     <row r="450">
@@ -26997,13 +26997,13 @@
       </c>
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="n">
-        <v>-0.5550948290050645</v>
+        <v>-0.554093830137846</v>
       </c>
       <c r="P450" t="n">
         <v>0.35</v>
       </c>
       <c r="Q450" t="n">
-        <v>0.7604799157369384</v>
+        <v>0.759108547288849</v>
       </c>
     </row>
   </sheetData>
